--- a/data/validation_cohort.xlsx
+++ b/data/validation_cohort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A4CA7-53C3-4F54-996F-1B9A6C36AABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61706BAF-2D4A-4B82-BDDE-2E2E85466B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -333,12 +333,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +660,7 @@
   <dimension ref="A1:AH110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1111,107 +1115,107 @@
         <v>-9.1692341481480033E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="4" customFormat="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:34" s="13" customFormat="1">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="13">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="13">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="13">
         <v>18</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="14">
         <v>44382</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="13">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="13">
         <v>28.07</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="13">
         <v>28.31</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="13">
         <v>0.23999999999999844</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="13">
         <v>10</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="13">
         <v>-17.80952380952381</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="13">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="13">
         <v>36.476161031297771</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="13">
         <v>4</v>
       </c>
-      <c r="Q5" s="4">
-        <v>9</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="Q5" s="13">
+        <v>9</v>
+      </c>
+      <c r="R5" s="13">
         <v>36</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="13">
         <v>377</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="13">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="13">
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="13">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="13">
         <v>0.2857142857142857</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="13">
         <v>1</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="13">
         <v>0.11243568696039764</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="13">
         <v>0.19405486402990099</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="13">
         <v>2.8663795096960083</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="13">
         <v>-2.4410858683366876</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="13">
         <v>-1.62583389312448</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="13">
         <v>-1.8354574347055927</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="13">
         <v>-0.19195614355021526</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="13">
         <v>-0.14736594210159945</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="13">
         <v>0.31481387084336931</v>
       </c>
     </row>
@@ -1319,107 +1323,107 @@
         <v>7.1011774948955414E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="4" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:34" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="13">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="13">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="14">
         <v>44382</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="13">
         <v>22</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="13">
         <v>25.69</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="13">
         <v>26.71</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="13">
         <v>1.0199999999999996</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="13">
         <v>6</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="13">
         <v>-14.375000000000004</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="13">
         <v>5</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="13">
         <v>-1.8973369057768057</v>
       </c>
-      <c r="P7" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="P7" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="13">
         <v>8</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="13">
         <v>300</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="13">
         <v>96</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="13">
         <v>0.1</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="13">
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="13">
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="13">
         <v>0.42857142857142855</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="13">
         <v>0</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="13">
         <v>9.9556717961840069E-2</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="13">
         <v>4.5423196520964257E-2</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="13">
         <v>-0.41926179662685037</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="13">
         <v>1.6096384807942288</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="13">
         <v>-0.37578398127260981</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="13">
         <v>-0.60086825078766881</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="13">
         <v>-0.56137412945080878</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="13">
         <v>0.27753171770363638</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="13">
         <v>7.1917021958238597E-2</v>
       </c>
     </row>
@@ -1839,107 +1843,107 @@
         <v>1.6130675087923523E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="11" customFormat="1">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:34" s="10" customFormat="1">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>18</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>44382</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>22</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>28.38</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>29.49</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>1.1099999999999994</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>2</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>19.033333333333335</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>1</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>33.289833822091893</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>8</v>
       </c>
-      <c r="Q12" s="11">
-        <v>9</v>
-      </c>
-      <c r="R12" s="11">
+      <c r="Q12" s="10">
+        <v>9</v>
+      </c>
+      <c r="R12" s="10">
         <v>31</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <v>197</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>0.1</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="10">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="10">
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="10">
         <v>0.25</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="10">
         <v>0</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="10">
         <v>0.10409860619436795</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="10">
         <v>0.24399482488744784</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="10">
         <v>1.0909267519762362</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="10">
         <v>-0.26873000081519072</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="10">
         <v>1.4204976715690614</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="10">
         <v>-0.17317853341584397</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AF12" s="10">
         <v>-0.13049947665450343</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AG12" s="10">
         <v>-0.31696759281138487</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12" s="10">
         <v>1.1133828775048505E-2</v>
       </c>
     </row>
@@ -2359,107 +2363,107 @@
         <v>2.3574047017018027E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="4" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:34" s="13" customFormat="1">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="13">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="14">
         <v>44382</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="13">
         <v>22</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="13">
         <v>27.25</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="13">
         <v>30.01</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="13">
         <v>2.7600000000000016</v>
       </c>
-      <c r="L17" s="4">
-        <v>9</v>
-      </c>
-      <c r="M17" s="4">
+      <c r="L17" s="13">
+        <v>9</v>
+      </c>
+      <c r="M17" s="13">
         <v>-15.666666666666666</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="13">
         <v>3</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="13">
         <v>7.6616961838498838</v>
       </c>
-      <c r="P17" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>9</v>
-      </c>
-      <c r="R17" s="4">
+      <c r="P17" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>9</v>
+      </c>
+      <c r="R17" s="13">
         <v>82</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="13">
         <v>92</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="13">
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="13">
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="13">
         <v>0.375</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="13">
         <v>0</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="13">
         <v>0.10285462465218594</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="13">
         <v>0.10770919623476766</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="13">
         <v>0.23456083022848012</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="13">
         <v>1.1862047312509925</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD17" s="13">
         <v>0.45924617721159589</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AE17" s="13">
         <v>0.4955387519191744</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="13">
         <v>-0.13290264052769865</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="13">
         <v>-0.31496471244647456</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AH17" s="13">
         <v>2.5668669765817789E-2</v>
       </c>
     </row>
@@ -3919,107 +3923,107 @@
         <v>2.3743594945392094E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="11" customFormat="1">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:34" s="10" customFormat="1">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>14</v>
       </c>
-      <c r="C32" s="11">
-        <v>9</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="10">
+        <v>9</v>
+      </c>
+      <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>16</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>44382</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>22</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <v>23.82</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <v>25.88</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>2.0599999999999987</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>10</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="10">
         <v>-20.483333333333334</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <v>4</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="10">
         <v>14.180097680097679</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="10">
         <v>5</v>
       </c>
-      <c r="Q32" s="11">
-        <v>9</v>
-      </c>
-      <c r="R32" s="11">
+      <c r="Q32" s="10">
+        <v>9</v>
+      </c>
+      <c r="R32" s="10">
         <v>34</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="10">
         <v>38</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="10">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="10">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W32" s="10">
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X32" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y32" s="10">
         <v>2.333333333333333</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z32" s="10">
         <v>0.12281138285623541</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA32" s="10">
         <v>8.1216811854431303E-2</v>
       </c>
-      <c r="AB32" s="11">
+      <c r="AB32" s="10">
         <v>2.1215446071388042</v>
       </c>
-      <c r="AC32" s="11">
+      <c r="AC32" s="10">
         <v>-2.4183896056494052</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AD32" s="10">
         <v>-1.5571379702405241</v>
       </c>
-      <c r="AE32" s="11">
+      <c r="AE32" s="10">
         <v>0.47918414776686336</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AF32" s="10">
         <v>0.27364502203743857</v>
       </c>
-      <c r="AG32" s="11">
+      <c r="AG32" s="10">
         <v>5.0528236816361184E-2</v>
       </c>
-      <c r="AH32" s="11">
+      <c r="AH32" s="10">
         <v>4.1498196831973935E-2</v>
       </c>
     </row>
@@ -4751,107 +4755,107 @@
         <v>-8.9405668254176882E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" s="4" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:34" s="13" customFormat="1">
+      <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="13">
         <v>14</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="13">
         <v>2</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="13">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="13">
         <v>16</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="14">
         <v>44382</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="13">
         <v>22</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="13">
         <v>24.07</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="13">
         <v>25.74</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="13">
         <v>1.6699999999999982</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="13">
         <v>6</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="13">
         <v>0.25</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="13">
         <v>3</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="13">
         <v>20.333577533577532</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="13">
         <v>6</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="13">
         <v>8</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="13">
         <v>33</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S40" s="13">
         <v>80</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T40" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U40" s="4">
+      <c r="U40" s="13">
         <v>0.1</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="13">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="13">
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="X40" s="4">
+      <c r="X40" s="13">
         <v>0.39285714285714285</v>
       </c>
-      <c r="Y40" s="4">
+      <c r="Y40" s="13">
         <v>1</v>
       </c>
-      <c r="Z40" s="4">
+      <c r="Z40" s="13">
         <v>0.10783818116678155</v>
       </c>
-      <c r="AA40" s="4">
+      <c r="AA40" s="13">
         <v>0.18240084250088748</v>
       </c>
-      <c r="AB40" s="4">
+      <c r="AB40" s="13">
         <v>0.95948374198569708</v>
       </c>
-      <c r="AC40" s="4">
+      <c r="AC40" s="13">
         <v>-2.3858476460049873</v>
       </c>
-      <c r="AD40" s="4">
+      <c r="AD40" s="13">
         <v>-2.0771117109522105E-2</v>
       </c>
-      <c r="AE40" s="4">
+      <c r="AE40" s="13">
         <v>-7.3881789370378398E-2</v>
       </c>
-      <c r="AF40" s="4">
+      <c r="AF40" s="13">
         <v>9.7885288120632782E-2</v>
       </c>
-      <c r="AG40" s="4">
+      <c r="AG40" s="13">
         <v>0.15919404556982905</v>
       </c>
-      <c r="AH40" s="4">
+      <c r="AH40" s="13">
         <v>9.4325347463321288E-2</v>
       </c>
     </row>
@@ -5271,107 +5275,107 @@
         <v>6.5314164764663493E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" s="4" customFormat="1">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:34" s="13" customFormat="1">
+      <c r="A45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="13">
         <v>15</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="13">
         <v>7</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="13">
         <v>22</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="14">
         <v>44411</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="13">
         <v>23</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="13">
         <v>28.11</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="13">
         <v>30.11</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="13">
         <v>2</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="13">
         <v>8</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="13">
         <v>-11</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="13">
         <v>2</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="13">
         <v>34.632577484834655</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="13">
         <v>5</v>
       </c>
-      <c r="Q45" s="4">
-        <v>9</v>
-      </c>
-      <c r="R45" s="4">
+      <c r="Q45" s="13">
+        <v>9</v>
+      </c>
+      <c r="R45" s="13">
         <v>23</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="13">
         <v>260</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45" s="13">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45" s="13">
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="W45" s="4">
+      <c r="W45" s="13">
         <v>8.2644628099173556E-3</v>
       </c>
-      <c r="X45" s="4">
+      <c r="X45" s="13">
         <v>0.2</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Y45" s="13">
         <v>12.166666666666666</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="Z45" s="13">
         <v>0.1102840938488092</v>
       </c>
-      <c r="AA45" s="4">
+      <c r="AA45" s="13">
         <v>0.17896141020578601</v>
       </c>
-      <c r="AB45" s="4">
+      <c r="AB45" s="13">
         <v>2.4326852328791158</v>
       </c>
-      <c r="AC45" s="4">
+      <c r="AC45" s="13">
         <v>-2.2299645316809764</v>
       </c>
-      <c r="AD45" s="4">
+      <c r="AD45" s="13">
         <v>-0.56990537406970243</v>
       </c>
-      <c r="AE45" s="4">
+      <c r="AE45" s="13">
         <v>-1.2043050323342763</v>
       </c>
-      <c r="AF45" s="4">
+      <c r="AF45" s="13">
         <v>-0.13253461720938842</v>
       </c>
-      <c r="AG45" s="4">
+      <c r="AG45" s="13">
         <v>-0.23735994200925623</v>
       </c>
-      <c r="AH45" s="4">
+      <c r="AH45" s="13">
         <v>0.18267368025607938</v>
       </c>
     </row>
@@ -5999,107 +6003,107 @@
         <v>2.3208270646608485E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="11" customFormat="1">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:34" s="17" customFormat="1">
+      <c r="A52" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="17">
         <v>16</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="17">
         <v>10</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="17">
         <v>2</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="17">
         <v>22</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="18">
         <v>44411</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="17">
         <v>23</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="17">
         <v>25.24</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="17">
         <v>25.51</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="17">
         <v>0.27000000000000313</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="17">
         <v>5</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="17">
         <v>2</v>
       </c>
-      <c r="N52" s="11">
-        <v>9</v>
-      </c>
-      <c r="O52" s="11">
+      <c r="N52" s="17">
+        <v>9</v>
+      </c>
+      <c r="O52" s="17">
         <v>-26.333333333333336</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="17">
         <v>8</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="17">
         <v>4</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R52" s="17">
         <v>53</v>
       </c>
-      <c r="S52" s="11">
+      <c r="S52" s="17">
         <v>4</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T52" s="17">
         <v>0.1</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="17">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="V52" s="11">
+      <c r="V52" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="W52" s="11">
+      <c r="W52" s="17">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="X52" s="11">
+      <c r="X52" s="17">
         <v>0</v>
       </c>
-      <c r="Y52" s="11">
+      <c r="Y52" s="17">
         <v>28.666666666666664</v>
       </c>
-      <c r="Z52" s="11">
+      <c r="Z52" s="17">
         <v>5.9753793181713435E-2</v>
       </c>
-      <c r="AA52" s="11">
+      <c r="AA52" s="17">
         <v>9.3674098043229556E-3</v>
       </c>
-      <c r="AB52" s="11">
+      <c r="AB52" s="17">
         <v>-4.1810861690731445</v>
       </c>
-      <c r="AC52" s="11">
+      <c r="AC52" s="17">
         <v>-1.8167398878381171</v>
       </c>
-      <c r="AD52" s="11">
+      <c r="AD52" s="17">
         <v>-0.74129918708805975</v>
       </c>
-      <c r="AE52" s="11">
+      <c r="AE52" s="17">
         <v>0.18564491813911074</v>
       </c>
-      <c r="AF52" s="11">
+      <c r="AF52" s="17">
         <v>0.11210928162780875</v>
       </c>
-      <c r="AG52" s="11">
+      <c r="AG52" s="17">
         <v>0.20573917383826937</v>
       </c>
-      <c r="AH52" s="11">
+      <c r="AH52" s="17">
         <v>1.7780099771787957E-2</v>
       </c>
     </row>
@@ -7039,211 +7043,211 @@
         <v>-6.6764246682935111E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="11" customFormat="1">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:34" s="10" customFormat="1">
+      <c r="A62" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>17</v>
       </c>
-      <c r="C62" s="11">
-        <v>9</v>
-      </c>
-      <c r="D62" s="11">
+      <c r="C62" s="10">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10">
         <v>2</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>20</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>44411</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>23</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="10">
         <v>25.19</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="10">
         <v>28.58</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <v>3.389999999999997</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="10">
         <v>6</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="10">
         <v>-1.6833333333333336</v>
       </c>
-      <c r="N62" s="11">
+      <c r="N62" s="10">
         <v>7</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O62" s="10">
         <v>-2.5191734191734199</v>
       </c>
-      <c r="P62" s="11">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="11">
-        <v>9</v>
-      </c>
-      <c r="R62" s="11">
+      <c r="P62" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>9</v>
+      </c>
+      <c r="R62" s="10">
         <v>96</v>
       </c>
-      <c r="S62" s="11">
+      <c r="S62" s="10">
         <v>88</v>
       </c>
-      <c r="T62" s="11">
+      <c r="T62" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U62" s="11">
+      <c r="U62" s="10">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V62" s="11">
+      <c r="V62" s="10">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="W62" s="11">
+      <c r="W62" s="10">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="X62" s="11">
+      <c r="X62" s="10">
         <v>0.99285714285714288</v>
       </c>
-      <c r="Y62" s="11">
+      <c r="Y62" s="10">
         <v>0</v>
       </c>
-      <c r="Z62" s="11">
+      <c r="Z62" s="10">
         <v>0.10498361822932066</v>
       </c>
-      <c r="AA62" s="11">
+      <c r="AA62" s="10">
         <v>0.11282662279099502</v>
       </c>
-      <c r="AB62" s="11">
+      <c r="AB62" s="10">
         <v>0.41637087961201918</v>
       </c>
-      <c r="AC62" s="11">
+      <c r="AC62" s="10">
         <v>1.6070483039102497</v>
       </c>
-      <c r="AD62" s="11">
+      <c r="AD62" s="10">
         <v>0.11801599274605735</v>
       </c>
-      <c r="AE62" s="11">
+      <c r="AE62" s="10">
         <v>-3.7080269558884493E-2</v>
       </c>
-      <c r="AF62" s="11">
+      <c r="AF62" s="10">
         <v>-0.34906900012117476</v>
       </c>
-      <c r="AG62" s="11">
+      <c r="AG62" s="10">
         <v>-0.1450775872354278</v>
       </c>
-      <c r="AH62" s="11">
+      <c r="AH62" s="10">
         <v>9.5514931513331503E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="4" customFormat="1">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:34" s="13" customFormat="1">
+      <c r="A63" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="13">
         <v>17</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="13">
         <v>1</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="13">
         <v>2</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="13">
         <v>20</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="14">
         <v>44411</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="13">
         <v>23</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="13">
         <v>29.21</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="13">
         <v>29.88</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="13">
         <v>0.66999999999999815</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="13">
         <v>4</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="13">
         <v>12.433333333333334</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="13">
         <v>6</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="13">
         <v>-0.88921957671957585</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="13">
         <v>8</v>
       </c>
-      <c r="Q63" s="4">
-        <v>9</v>
-      </c>
-      <c r="R63" s="4">
+      <c r="Q63" s="13">
+        <v>9</v>
+      </c>
+      <c r="R63" s="13">
         <v>115</v>
       </c>
-      <c r="S63" s="4">
+      <c r="S63" s="13">
         <v>70</v>
       </c>
-      <c r="T63" s="4">
+      <c r="T63" s="13">
         <v>0.1</v>
       </c>
-      <c r="U63" s="4">
+      <c r="U63" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V63" s="13">
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="W63" s="4">
+      <c r="W63" s="13">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="X63" s="4">
+      <c r="X63" s="13">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y63" s="4">
+      <c r="Y63" s="13">
         <v>0.78333333333333333</v>
       </c>
-      <c r="Z63" s="4">
+      <c r="Z63" s="13">
         <v>0.10581527718277794</v>
       </c>
-      <c r="AA63" s="4">
+      <c r="AA63" s="13">
         <v>6.849464987942909E-2</v>
       </c>
-      <c r="AB63" s="4">
+      <c r="AB63" s="13">
         <v>0.7381099607328685</v>
       </c>
-      <c r="AC63" s="4">
+      <c r="AC63" s="13">
         <v>0.67357005508092727</v>
       </c>
-      <c r="AD63" s="4">
+      <c r="AD63" s="13">
         <v>-0.79154584205200207</v>
       </c>
-      <c r="AE63" s="4">
+      <c r="AE63" s="13">
         <v>-6.5397895347924784E-3</v>
       </c>
-      <c r="AF63" s="4">
+      <c r="AF63" s="13">
         <v>-0.41625841702888722</v>
       </c>
-      <c r="AG63" s="4">
+      <c r="AG63" s="13">
         <v>-0.24032118404543815</v>
       </c>
-      <c r="AH63" s="4">
+      <c r="AH63" s="13">
         <v>-6.4907588339120109E-2</v>
       </c>
     </row>
@@ -7871,107 +7875,107 @@
         <v>3.7163698712396637E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" s="4" customFormat="1">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:34" s="13" customFormat="1">
+      <c r="A70" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="13">
         <v>17</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="13">
         <v>2</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="13">
         <v>2</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="13">
         <v>20</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="14">
         <v>44411</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="13">
         <v>23</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="13">
         <v>25.74</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="13">
         <v>29.07</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="13">
         <v>3.3300000000000018</v>
       </c>
-      <c r="L70" s="4">
-        <v>9</v>
-      </c>
-      <c r="M70" s="4">
+      <c r="L70" s="13">
+        <v>9</v>
+      </c>
+      <c r="M70" s="13">
         <v>-16.749999999999996</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="13">
         <v>1</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="13">
         <v>25.232646077754772</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="13">
         <v>7</v>
       </c>
-      <c r="Q70" s="4">
-        <v>9</v>
-      </c>
-      <c r="R70" s="4">
+      <c r="Q70" s="13">
+        <v>9</v>
+      </c>
+      <c r="R70" s="13">
         <v>46</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S70" s="13">
         <v>130</v>
       </c>
-      <c r="T70" s="4">
+      <c r="T70" s="13">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U70" s="4">
+      <c r="U70" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V70" s="4">
+      <c r="V70" s="13">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="W70" s="4">
+      <c r="W70" s="13">
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="X70" s="4">
+      <c r="X70" s="13">
         <v>0</v>
       </c>
-      <c r="Y70" s="4">
+      <c r="Y70" s="13">
         <v>4.166666666666667</v>
       </c>
-      <c r="Z70" s="4">
+      <c r="Z70" s="13">
         <v>0.10711530996643197</v>
       </c>
-      <c r="AA70" s="4">
+      <c r="AA70" s="13">
         <v>0.15739421849916724</v>
       </c>
-      <c r="AB70" s="4">
+      <c r="AB70" s="13">
         <v>1.4218671077840654</v>
       </c>
-      <c r="AC70" s="4">
+      <c r="AC70" s="13">
         <v>-0.56548071308586279</v>
       </c>
-      <c r="AD70" s="4">
+      <c r="AD70" s="13">
         <v>-0.24515791062852768</v>
       </c>
-      <c r="AE70" s="4">
+      <c r="AE70" s="13">
         <v>-0.46905860104543862</v>
       </c>
-      <c r="AF70" s="4">
+      <c r="AF70" s="13">
         <v>-0.32782907967180136</v>
       </c>
-      <c r="AG70" s="4">
+      <c r="AG70" s="13">
         <v>-0.25252259047950171</v>
       </c>
-      <c r="AH70" s="4">
+      <c r="AH70" s="13">
         <v>-1.915104356460819E-2</v>
       </c>
     </row>

--- a/data/validation_cohort.xlsx
+++ b/data/validation_cohort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61706BAF-2D4A-4B82-BDDE-2E2E85466B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC9787-0D00-4AD9-A774-AF96491B5D75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -267,8 +267,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -343,6 +361,21 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,211 +836,211 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:34" s="26" customFormat="1">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="26">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="26">
         <v>18</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="27">
         <v>44382</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="26">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="26">
         <v>25.38</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="26">
         <v>24.51</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="26">
         <v>-0.86999999999999744</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="26">
         <v>2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="26">
         <v>18.404761904761902</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="26">
         <v>10</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="26">
         <v>-31.149528304472476</v>
       </c>
-      <c r="P2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="P2" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="26">
         <v>8</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="26">
         <v>337</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="26">
         <v>19</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="26">
         <v>0.1</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="26">
         <v>7.9365079365079361E-3</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="26">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="26">
         <v>0.42857142857142855</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="26">
         <v>2.5</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="26">
         <v>9.9556717961840069E-2</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="26">
         <v>8.6539264854862876E-3</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="26">
         <v>-1.192196492216931</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="26">
         <v>1.1932620560348974</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="26">
         <v>-1.3870218784060271</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="26">
         <v>1.3090306276703938</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="26">
         <v>-0.11506327137531563</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="26">
         <v>1.4388376820332985E-2</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="26">
         <v>1.4215480694516712E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:34" s="13" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>44382</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="13">
         <v>26.68</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="13">
         <v>27.12</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="13">
         <v>0.44000000000000128</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="13">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="13">
         <v>-16.18452380952381</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="13">
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="13">
         <v>-15.963133640552996</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="13">
         <v>8</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="13">
         <v>8</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="13">
         <v>112</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="13">
         <v>14</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="13">
         <v>0.1</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="13">
         <v>0.1</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="13">
         <v>8.9285714285714281E-3</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="13">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="13">
         <v>45.333333333333329</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="13">
         <v>0.10074296982162297</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="13">
         <v>6.9294899993643487E-3</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="13">
         <v>-0.89762124258180909</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="13">
         <v>3.6338647318052371E-2</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="13">
         <v>-2.0420560321063617</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="13">
         <v>1.5849147772429073</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="13">
         <v>-6.4680236741401956E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="13">
         <v>-0.10514771362518954</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="13">
         <v>-5.9458112757302922E-2</v>
       </c>
     </row>
@@ -1219,107 +1252,107 @@
         <v>0.31481387084336931</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:34" s="20" customFormat="1">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="20">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="20">
         <v>18</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="21">
         <v>44382</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="20">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="20">
         <v>24.12</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="20">
         <v>23.92</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="20">
         <v>-0.19999999999999929</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="20">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="20">
         <v>5.9999999999999964</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="20">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="20">
         <v>-1.7289409889177012</v>
       </c>
-      <c r="P6">
-        <v>9</v>
-      </c>
-      <c r="Q6">
+      <c r="P6" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="20">
         <v>8</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="20">
         <v>206</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="20">
         <v>86</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="20">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="20">
         <v>0.1</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="20">
         <v>8.5470085470085479E-3</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="20">
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="20">
         <v>0.42857142857142855</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="20">
         <v>0</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="20">
         <v>9.9556717961840069E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="20">
         <v>4.299263923786794E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="20">
         <v>-0.42979299465593873</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="20">
         <v>1.607995379785415</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="20">
         <v>-0.39549391320619764</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="20">
         <v>-0.57779425489825897</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="20">
         <v>-0.55714102868195037</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="20">
         <v>0.27445332677077727</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="20">
         <v>7.1011774948955414E-2</v>
       </c>
     </row>
@@ -1947,107 +1980,107 @@
         <v>1.1133828775048505E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="4" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:34" s="26" customFormat="1">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="26">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="26">
         <v>7</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="26">
         <v>16</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="27">
         <v>44382</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="26">
         <v>22</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="26">
         <v>23.28</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="26">
         <v>22.45</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="26">
         <v>-0.83000000000000185</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="26">
         <v>6</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="26">
         <v>-2.4999999999999982</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="26">
         <v>5</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="26">
         <v>4.2447654953322598</v>
       </c>
-      <c r="P13" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>9</v>
-      </c>
-      <c r="R13" s="4">
+      <c r="P13" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>9</v>
+      </c>
+      <c r="R13" s="26">
         <v>94</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="26">
         <v>83</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="26">
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="26">
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="26">
         <v>0.375</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="26">
         <v>2.5</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="26">
         <v>0.10285462465218594</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="26">
         <v>0.10134830252272897</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="26">
         <v>0.23456083022848012</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="26">
         <v>1.1862047312509925</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="26">
         <v>0.45924617721159589</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE13" s="26">
         <v>0.4955387519191744</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="26">
         <v>-0.13290264052769865</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="26">
         <v>-0.31496471244647456</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="26">
         <v>2.5668669765817789E-2</v>
       </c>
     </row>
@@ -2155,107 +2188,107 @@
         <v>4.6571300556951745E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:34" s="23" customFormat="1">
+      <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="23">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="23">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="23">
         <v>18</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="24">
         <v>44382</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="23">
         <v>22</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="23">
         <v>23.49</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="23">
         <v>26.19</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="23">
         <v>2.7000000000000028</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="23">
         <v>10</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="23">
         <v>-28.283333333333331</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="23">
         <v>10</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="23">
         <v>-29.737373737373733</v>
       </c>
-      <c r="P15">
-        <v>9</v>
-      </c>
-      <c r="Q15">
+      <c r="P15" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="23">
         <v>8</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="23">
         <v>69</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="23">
         <v>12</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="23">
         <v>0.1</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="23">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="23">
         <v>6.25E-2</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="23">
         <v>0.25</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="23">
         <v>20.25</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="23">
         <v>9.2005239062978014E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="23">
         <v>1.5140842815715457E-2</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="23">
         <v>-1.5285984136946622</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="23">
         <v>0.42872171837830642</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="23">
         <v>-0.60034087142672332</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="23">
         <v>2.0248326408991724</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="23">
         <v>0.21585825417508253</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="23">
         <v>-0.41248422386220407</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="23">
         <v>7.7806497279441542E-2</v>
       </c>
     </row>
@@ -2467,211 +2500,211 @@
         <v>2.5668669765817789E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:34" s="23" customFormat="1">
+      <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="23">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="23">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="23">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="24">
         <v>44382</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="23">
         <v>22</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="23">
         <v>27.57</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="23">
         <v>27.18</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="23">
         <v>-0.39000000000000057</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="23">
         <v>5</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="23">
         <v>-0.75</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="23">
         <v>8</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="23">
         <v>-9.1795535382491913</v>
       </c>
-      <c r="P18">
-        <v>9</v>
-      </c>
-      <c r="Q18">
+      <c r="P18" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="23">
         <v>8</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="23">
         <v>71</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="23">
         <v>45</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="23">
         <v>0.1</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="23">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="23">
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="23">
         <v>0.25</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="23">
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="23">
         <v>9.2149326952493338E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="23">
         <v>5.2934375224049528E-2</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="23">
         <v>-0.7128405526984235</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="23">
         <v>0.89083223760635255</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="23">
         <v>0.42653576986948183</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="23">
         <v>2.8826386006742741E-3</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="23">
         <v>-0.26307677980759797</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="23">
         <v>-0.12735108806360251</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="23">
         <v>0.13667154520150904</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:34" s="13" customFormat="1">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="13">
+        <v>9</v>
+      </c>
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="13">
         <v>18</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="14">
         <v>44382</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13">
         <v>22</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="13">
         <v>28.45</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="13">
         <v>29.56</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
         <v>1.1099999999999994</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="13">
         <v>3</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="13">
         <v>15.91666666666667</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="13">
         <v>7</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="13">
         <v>-6.2408157144999237</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="13">
         <v>8</v>
       </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-      <c r="R19">
+      <c r="Q19" s="13">
+        <v>9</v>
+      </c>
+      <c r="R19" s="13">
         <v>91</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="13">
         <v>36</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="13">
         <v>0.1</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="13">
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="13">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="13">
         <v>0.25</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="13">
         <v>4</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="13">
         <v>0.10408198942353918</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="13">
         <v>3.6864646470858117E-2</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="13">
         <v>0.61383775045182798</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="13">
         <v>0.24693657225795768</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="13">
         <v>-0.34018694118182707</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="13">
         <v>0.43922753465515518</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="13">
         <v>-0.20959505261606168</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="13">
         <v>-0.38272450756069587</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="13">
         <v>-4.7153357323342013E-2</v>
       </c>
     </row>
@@ -2779,211 +2812,211 @@
         <v>4.145000097606865E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:34" s="23" customFormat="1">
+      <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="23">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="23">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="23">
         <v>18</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="24">
         <v>44382</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="23">
         <v>22</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="23">
         <v>25.31</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="23">
         <v>24.85</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="23">
         <v>-0.4599999999999973</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="23">
         <v>8</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="23">
         <v>-10.833333333333332</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="23">
         <v>6</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="23">
         <v>-4.8787626299485858</v>
       </c>
-      <c r="P21">
-        <v>9</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-      <c r="R21">
+      <c r="P21" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>9</v>
+      </c>
+      <c r="R21" s="23">
         <v>140</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="23">
         <v>70</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="23">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="23">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="23">
         <v>0.375</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="23">
         <v>0</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="23">
         <v>0.10285462465218594</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="23">
         <v>7.193368819193692E-2</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="23">
         <v>0.34932762579253585</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="23">
         <v>1.3200729597539878</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="23">
         <v>0.50335358682426512</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="23">
         <v>0.15924731784623808</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="23">
         <v>-0.23220570243725006</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="23">
         <v>-0.26683047912152347</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="23">
         <v>3.2107771947682787E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="7" customFormat="1">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:34" s="17" customFormat="1">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="17">
         <v>13</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="17">
         <v>10</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="17">
         <v>18</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="18">
         <v>45112</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="17">
         <v>22</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="17">
         <v>24.72</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="17">
         <v>24.97</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="17">
         <v>0.25</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="17">
         <v>8</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="17">
         <v>-16.916666666666664</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="17">
         <v>10</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="17">
         <v>-34.090909090909086</v>
       </c>
-      <c r="P22" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="P22" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="17">
         <v>4</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="17">
         <v>62</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="17">
         <v>4</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="17">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="17">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="17">
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="17">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="17">
         <v>1.0666666666666667</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="17">
         <v>32.5</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="17">
         <v>5.1501703337765575E-2</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="17">
         <v>4.0238730480226517E-3</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="17">
         <v>-4.7004338032015314</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="17">
         <v>-0.69598980171054481</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="17">
         <v>-0.38842756761386293</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="17">
         <v>0.32416636524399856</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="17">
         <v>0.25522201084793994</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="AG22" s="17">
         <v>-0.2003480377119434</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="17">
         <v>-3.8868204230427791E-2</v>
       </c>
     </row>
@@ -3507,211 +3540,211 @@
         <v>-0.10547409075230484</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:34" s="13" customFormat="1">
+      <c r="A28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="13">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="13">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="13">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="13">
         <v>17</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="14">
         <v>44382</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="13">
         <v>22</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="13">
         <v>25.32</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="13">
         <v>25.93</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
         <v>0.60999999999999943</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="13">
         <v>10</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="13">
         <v>-23.9</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="13">
         <v>8</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="13">
         <v>-25.833333333333336</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="13">
         <v>8</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="13">
         <v>4</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="13">
         <v>70</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="13">
         <v>6</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="13">
         <v>0.1</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="13">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="13">
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="13">
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="13">
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="13">
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="13">
         <v>5.5969527562366755E-2</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="13">
         <v>7.4706839114621016E-3</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="13">
         <v>-3.8663864052683152</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="13">
         <v>-1.3094569821252646</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="13">
         <v>-0.8698358150708192</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="13">
         <v>-0.68233402096326801</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="13">
         <v>-6.4997438785785525E-2</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="13">
         <v>-5.7042282802614289E-4</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="13">
         <v>-0.11079716493742139</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:34" s="13" customFormat="1">
+      <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="13">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="13">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="13">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="13">
         <v>18</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="14">
         <v>44382</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="13">
         <v>22</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="13">
         <v>26.24</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="13">
         <v>26.28</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="13">
         <v>4.00000000000027E-2</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="13">
         <v>4</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="13">
         <v>6.1999999999999993</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="13">
         <v>2</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="13">
         <v>22.667764602547212</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="13">
         <v>6</v>
       </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-      <c r="R29">
+      <c r="Q29" s="13">
+        <v>9</v>
+      </c>
+      <c r="R29" s="13">
         <v>41</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="13">
         <v>107</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="13">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="13">
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="13">
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="13">
         <v>0</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="13">
         <v>0.1174376979543771</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="13">
         <v>0.14916303879496057</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="13">
         <v>2.1132677962699753</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="13">
         <v>-1.2298970493998214</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="13">
         <v>-0.76719358692346906</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="13">
         <v>-0.71883338234264404</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="13">
         <v>-0.25388287704286605</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="13">
         <v>0.10111491952634412</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="13">
         <v>-1.2945994971749798E-2</v>
       </c>
     </row>
@@ -3923,419 +3956,419 @@
         <v>2.3743594945392094E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="10" customFormat="1">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:34" s="32" customFormat="1">
+      <c r="A32" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="32">
         <v>14</v>
       </c>
-      <c r="C32" s="10">
-        <v>9</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="C32" s="32">
+        <v>9</v>
+      </c>
+      <c r="D32" s="32">
         <v>1</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="32">
         <v>16</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="33">
         <v>44382</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="32">
         <v>22</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="32">
         <v>23.82</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="32">
         <v>25.88</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="32">
         <v>2.0599999999999987</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="32">
         <v>10</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="32">
         <v>-20.483333333333334</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="32">
         <v>4</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="32">
         <v>14.180097680097679</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="32">
         <v>5</v>
       </c>
-      <c r="Q32" s="10">
-        <v>9</v>
-      </c>
-      <c r="R32" s="10">
+      <c r="Q32" s="32">
+        <v>9</v>
+      </c>
+      <c r="R32" s="32">
         <v>34</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="32">
         <v>38</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T32" s="32">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="32">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V32" s="32">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W32" s="10">
+      <c r="W32" s="32">
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X32" s="32">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Y32" s="32">
         <v>2.333333333333333</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="32">
         <v>0.12281138285623541</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AA32" s="32">
         <v>8.1216811854431303E-2</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB32" s="32">
         <v>2.1215446071388042</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AC32" s="32">
         <v>-2.4183896056494052</v>
       </c>
-      <c r="AD32" s="10">
+      <c r="AD32" s="32">
         <v>-1.5571379702405241</v>
       </c>
-      <c r="AE32" s="10">
+      <c r="AE32" s="32">
         <v>0.47918414776686336</v>
       </c>
-      <c r="AF32" s="10">
+      <c r="AF32" s="32">
         <v>0.27364502203743857</v>
       </c>
-      <c r="AG32" s="10">
+      <c r="AG32" s="32">
         <v>5.0528236816361184E-2</v>
       </c>
-      <c r="AH32" s="10">
+      <c r="AH32" s="32">
         <v>4.1498196831973935E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:34" s="23" customFormat="1">
+      <c r="A33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="23">
         <v>14</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="23">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="23">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="23">
         <v>16</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="24">
         <v>44382</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="23">
         <v>22</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="23">
         <v>27.03</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="23">
         <v>28.47</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="23">
         <v>1.4399999999999977</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="23">
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="23">
         <v>2.56666666666667</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="23">
         <v>6</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="23">
         <v>2.7106782106782106</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="23">
         <v>8</v>
       </c>
-      <c r="Q33">
-        <v>9</v>
-      </c>
-      <c r="R33">
+      <c r="Q33" s="23">
+        <v>9</v>
+      </c>
+      <c r="R33" s="23">
         <v>40</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="23">
         <v>34</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="23">
         <v>0.1</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="23">
         <v>3.125E-2</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="23">
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="23">
         <v>2.8190476190476188</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="23">
         <v>3.333333333333333</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="23">
         <v>0.1187298706925959</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="23">
         <v>7.6412838440089295E-2</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="23">
         <v>0.89005534050121493</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="23">
         <v>-0.59628638100942843</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="23">
         <v>0.76717143287500211</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="23">
         <v>1.5341443895482041</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="23">
         <v>0.33948187884711994</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="23">
         <v>5.0070005153098493E-2</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="23">
         <v>-0.13585696253665611</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:34" s="13" customFormat="1">
+      <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="13">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="13">
         <v>4</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="13">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="13">
         <v>16</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="14">
         <v>44382</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="13">
         <v>22</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="13">
         <v>24.81</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="13">
         <v>26.58</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="13">
         <v>1.7699999999999996</v>
       </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
+      <c r="L34" s="13">
+        <v>9</v>
+      </c>
+      <c r="M34" s="13">
         <v>-14.616666666666667</v>
       </c>
-      <c r="N34">
-        <v>9</v>
-      </c>
-      <c r="O34">
+      <c r="N34" s="13">
+        <v>9</v>
+      </c>
+      <c r="O34" s="13">
         <v>-23.703357753357754</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="13">
         <v>7</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="13">
         <v>4</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="13">
         <v>25</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="13">
         <v>4</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="13">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="13">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="13">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="13">
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="13">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="13">
         <v>16.916666666666664</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="13">
         <v>5.7871403182873753E-2</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="13">
         <v>9.1550161384610831E-3</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="13">
         <v>-3.2258236357313823</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="13">
         <v>-3.3898189599323492</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="13">
         <v>0.7947923449835762</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="13">
         <v>-0.39644341313991233</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="13">
         <v>0.43389118045469943</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="13">
         <v>-0.11133105778887982</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="13">
         <v>-4.9792250461289315E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="4" customFormat="1">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:34" s="26" customFormat="1">
+      <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="26">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="26">
         <v>5</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="26">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="26">
         <v>16</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="27">
         <v>44382</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="26">
         <v>22</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="26">
         <v>27.09</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="26">
         <v>26.48</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="26">
         <v>-0.60999999999999943</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="26">
         <v>8</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="26">
         <v>-7.0833333333333339</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="26">
         <v>1</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="26">
         <v>21.348448773448773</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="26">
         <v>8</v>
       </c>
-      <c r="Q35" s="4">
-        <v>9</v>
-      </c>
-      <c r="R35" s="4">
+      <c r="Q35" s="26">
+        <v>9</v>
+      </c>
+      <c r="R35" s="26">
         <v>44</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="26">
         <v>87</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="26">
         <v>0.1</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35" s="26">
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="26">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X35" s="26">
         <v>3.7595238095238095</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Y35" s="26">
         <v>0</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="Z35" s="26">
         <v>0.11942508962239062</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AA35" s="26">
         <v>0.17510317078014009</v>
       </c>
-      <c r="AB35" s="4">
+      <c r="AB35" s="26">
         <v>1.3413159289355823</v>
       </c>
-      <c r="AC35" s="4">
+      <c r="AC35" s="26">
         <v>-0.78682636593741284</v>
       </c>
-      <c r="AD35" s="4">
+      <c r="AD35" s="26">
         <v>1.9619359782575947</v>
       </c>
-      <c r="AE35" s="4">
+      <c r="AE35" s="26">
         <v>0.78624624974901103</v>
       </c>
-      <c r="AF35" s="4">
+      <c r="AF35" s="26">
         <v>0.28978618135053041</v>
       </c>
-      <c r="AG35" s="4">
+      <c r="AG35" s="26">
         <v>0.1711554823984717</v>
       </c>
-      <c r="AH35" s="4">
+      <c r="AH35" s="26">
         <v>-9.5937401069145098E-2</v>
       </c>
     </row>
@@ -4450,7 +4483,7 @@
       <c r="B37">
         <v>14</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="26">
         <v>10</v>
       </c>
       <c r="D37">
@@ -4651,107 +4684,107 @@
         <v>-2.9751914180543799E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="4" customFormat="1">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:34" s="26" customFormat="1">
+      <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="26">
         <v>14</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="26">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="26">
         <v>1</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="26">
         <v>18</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="27">
         <v>44382</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="26">
         <v>22</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="26">
         <v>25.74</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="26">
         <v>26.33</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="26">
         <v>0.58999999999999986</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="26">
         <v>3</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="26">
         <v>3.8833333333333364</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="26">
         <v>2</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="26">
         <v>20.865509490509492</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="26">
         <v>7</v>
       </c>
-      <c r="Q39" s="4">
-        <v>9</v>
-      </c>
-      <c r="R39" s="4">
+      <c r="Q39" s="26">
+        <v>9</v>
+      </c>
+      <c r="R39" s="26">
         <v>47</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39" s="26">
         <v>116</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T39" s="26">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U39" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="26">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="26">
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X39" s="26">
         <v>1.8690476190476188</v>
       </c>
-      <c r="Y39" s="4">
+      <c r="Y39" s="26">
         <v>0</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="Z39" s="26">
         <v>0.12024328690835184</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AA39" s="26">
         <v>0.27533748730081758</v>
       </c>
-      <c r="AB39" s="4">
+      <c r="AB39" s="26">
         <v>1.836295112970028</v>
       </c>
-      <c r="AC39" s="4">
+      <c r="AC39" s="26">
         <v>-1.1225818382579007</v>
       </c>
-      <c r="AD39" s="4">
+      <c r="AD39" s="26">
         <v>0.80556969399099043</v>
       </c>
-      <c r="AE39" s="4">
+      <c r="AE39" s="26">
         <v>2.0364329453138152E-2</v>
       </c>
-      <c r="AF39" s="4">
+      <c r="AF39" s="26">
         <v>1.8061290084393198E-2</v>
       </c>
-      <c r="AG39" s="4">
+      <c r="AG39" s="26">
         <v>0.20585223579702061</v>
       </c>
-      <c r="AH39" s="4">
+      <c r="AH39" s="26">
         <v>-8.9405668254176882E-2</v>
       </c>
     </row>
@@ -5067,107 +5100,107 @@
         <v>6.1135152680562861E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:34" s="13" customFormat="1">
+      <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="13">
         <v>15</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="13">
         <v>2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="13">
         <v>22</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="14">
         <v>44411</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="13">
         <v>23</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="13">
         <v>26.26</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="13">
         <v>27.98</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="13">
         <v>1.7199999999999989</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="13">
         <v>10</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="13">
         <v>-36</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="13">
         <v>10</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="13">
         <v>-23.887955182072833</v>
       </c>
-      <c r="P43">
-        <v>9</v>
-      </c>
-      <c r="Q43">
+      <c r="P43" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="13">
         <v>7</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="13">
         <v>91</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="13">
         <v>14</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="13">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="13">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="13">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="13">
         <v>0</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="13">
         <v>43.833333333333329</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="13">
         <v>8.9878564398539446E-2</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="13">
         <v>8.8508502415896931E-3</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="13">
         <v>-2.0319559355203087</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="13">
         <v>0.59554471790885155</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="13">
         <v>-0.89517208030964468</v>
       </c>
-      <c r="AE43">
+      <c r="AE43" s="13">
         <v>1.0695147578351303</v>
       </c>
-      <c r="AF43">
+      <c r="AF43" s="13">
         <v>-2.8916852604478325E-2</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="13">
         <v>0.12563096175760655</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="13">
         <v>5.8703006155872817E-2</v>
       </c>
     </row>
@@ -5275,315 +5308,315 @@
         <v>6.5314164764663493E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" s="13" customFormat="1">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:34" s="29" customFormat="1">
+      <c r="A45" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="29">
         <v>15</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="29">
         <v>7</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="29">
         <v>2</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="29">
         <v>22</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="30">
         <v>44411</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="29">
         <v>23</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="29">
         <v>28.11</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="29">
         <v>30.11</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="29">
         <v>2</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="29">
         <v>8</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="29">
         <v>-11</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="29">
         <v>2</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="29">
         <v>34.632577484834655</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="29">
         <v>5</v>
       </c>
-      <c r="Q45" s="13">
-        <v>9</v>
-      </c>
-      <c r="R45" s="13">
+      <c r="Q45" s="29">
+        <v>9</v>
+      </c>
+      <c r="R45" s="29">
         <v>23</v>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="29">
         <v>260</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="29">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="29">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="29">
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="W45" s="13">
+      <c r="W45" s="29">
         <v>8.2644628099173556E-3</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="29">
         <v>0.2</v>
       </c>
-      <c r="Y45" s="13">
+      <c r="Y45" s="29">
         <v>12.166666666666666</v>
       </c>
-      <c r="Z45" s="13">
+      <c r="Z45" s="29">
         <v>0.1102840938488092</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45" s="29">
         <v>0.17896141020578601</v>
       </c>
-      <c r="AB45" s="13">
+      <c r="AB45" s="29">
         <v>2.4326852328791158</v>
       </c>
-      <c r="AC45" s="13">
+      <c r="AC45" s="29">
         <v>-2.2299645316809764</v>
       </c>
-      <c r="AD45" s="13">
+      <c r="AD45" s="29">
         <v>-0.56990537406970243</v>
       </c>
-      <c r="AE45" s="13">
+      <c r="AE45" s="29">
         <v>-1.2043050323342763</v>
       </c>
-      <c r="AF45" s="13">
+      <c r="AF45" s="29">
         <v>-0.13253461720938842</v>
       </c>
-      <c r="AG45" s="13">
+      <c r="AG45" s="29">
         <v>-0.23735994200925623</v>
       </c>
-      <c r="AH45" s="13">
+      <c r="AH45" s="29">
         <v>0.18267368025607938</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:34" s="13" customFormat="1">
+      <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="13">
         <v>15</v>
       </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="13">
+        <v>9</v>
+      </c>
+      <c r="D46" s="13">
         <v>2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="13">
         <v>22</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="14">
         <v>44411</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="13">
         <v>23</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="13">
         <v>24.43</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="13">
         <v>25.47</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="13">
         <v>1.0399999999999991</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="13">
         <v>5</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="13">
         <v>2.133333333333332</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="13">
         <v>5</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="13">
         <v>-3.0586708273366821</v>
       </c>
-      <c r="P46">
-        <v>9</v>
-      </c>
-      <c r="Q46">
-        <v>9</v>
-      </c>
-      <c r="R46">
+      <c r="P46" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>9</v>
+      </c>
+      <c r="R46" s="13">
         <v>212</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="13">
         <v>115</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="13">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="13">
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="X46">
+      <c r="X46" s="13">
         <v>1.9</v>
       </c>
-      <c r="Y46">
+      <c r="Y46" s="13">
         <v>1</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="13">
         <v>0.10497938867705593</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="13">
         <v>7.6841410177894212E-2</v>
       </c>
-      <c r="AB46">
+      <c r="AB46" s="13">
         <v>0.45886262142445766</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="13">
         <v>1.6992356668102644</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="13">
         <v>7.1814294600387518E-2</v>
       </c>
-      <c r="AE46">
+      <c r="AE46" s="13">
         <v>-0.19307646873679357</v>
       </c>
-      <c r="AF46">
+      <c r="AF46" s="13">
         <v>-0.40545258846917093</v>
       </c>
-      <c r="AG46">
+      <c r="AG46" s="13">
         <v>-0.12202852023346593</v>
       </c>
-      <c r="AH46">
+      <c r="AH46" s="13">
         <v>1.0716257521643534E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:34" s="23" customFormat="1">
+      <c r="A47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="23">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="23">
         <v>5</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="23">
         <v>2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="23">
         <v>22</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="24">
         <v>44411</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="23">
         <v>23</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="23">
         <v>26.42</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="23">
         <v>28.22</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="23">
         <v>1.7999999999999972</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="23">
         <v>7</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="23">
         <v>-7.9166666666666661</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="23">
         <v>4</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="23">
         <v>1.6907689166816926</v>
       </c>
-      <c r="P47">
-        <v>9</v>
-      </c>
-      <c r="Q47">
+      <c r="P47" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="23">
         <v>7</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="23">
         <v>178</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="23">
         <v>90</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="23">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="23">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="23">
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="23">
         <v>0</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="23">
         <v>0</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="23">
         <v>8.9878564398539446E-2</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="23">
         <v>6.1292168117225286E-2</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="23">
         <v>-1.2785733736431872</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="23">
         <v>1.0431464981157728</v>
       </c>
-      <c r="AD47">
+      <c r="AD47" s="23">
         <v>2.9020976604569738E-2</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" s="23">
         <v>-0.82262081013103117</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="23">
         <v>-0.48308497208395501</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="23">
         <v>0.38737046908179706</v>
       </c>
-      <c r="AH47">
+      <c r="AH47" s="23">
         <v>0.11371119377449639</v>
       </c>
     </row>
@@ -6315,107 +6348,107 @@
         <v>-0.11249853774404929</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="4" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:34" s="26" customFormat="1">
+      <c r="A55" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="26">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="26">
         <v>8</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="26">
         <v>2</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="26">
         <v>22</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="27">
         <v>44411</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="26">
         <v>23</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="26">
         <v>25.72</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="26">
         <v>27.61</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="26">
         <v>1.8900000000000006</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="26">
         <v>3</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="26">
         <v>6.8333333333333321</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="26">
         <v>2</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="26">
         <v>22.597772597772597</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="26">
         <v>7</v>
       </c>
-      <c r="Q55" s="4">
-        <v>9</v>
-      </c>
-      <c r="R55" s="4">
+      <c r="Q55" s="26">
+        <v>9</v>
+      </c>
+      <c r="R55" s="26">
         <v>33</v>
       </c>
-      <c r="S55" s="4">
+      <c r="S55" s="26">
         <v>123</v>
       </c>
-      <c r="T55" s="4">
+      <c r="T55" s="26">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="U55" s="4">
+      <c r="U55" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V55" s="4">
+      <c r="V55" s="26">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="W55" s="4">
+      <c r="W55" s="26">
         <v>1.5625E-2</v>
       </c>
-      <c r="X55" s="4">
+      <c r="X55" s="26">
         <v>1.5893939393939394</v>
       </c>
-      <c r="Y55" s="4">
+      <c r="Y55" s="26">
         <v>3</v>
       </c>
-      <c r="Z55" s="4">
+      <c r="Z55" s="26">
         <v>0.11934801429408932</v>
       </c>
-      <c r="AA55" s="4">
+      <c r="AA55" s="26">
         <v>0.24709489343715474</v>
       </c>
-      <c r="AB55" s="4">
+      <c r="AB55" s="26">
         <v>1.7886992613475337</v>
       </c>
-      <c r="AC55" s="4">
+      <c r="AC55" s="26">
         <v>-1.0859387292876401</v>
       </c>
-      <c r="AD55" s="4">
+      <c r="AD55" s="26">
         <v>0.69527556000639634</v>
       </c>
-      <c r="AE55" s="4">
+      <c r="AE55" s="26">
         <v>2.8127937470251434E-2</v>
       </c>
-      <c r="AF55" s="4">
+      <c r="AF55" s="26">
         <v>1.4796743626607008E-3</v>
       </c>
-      <c r="AG55" s="4">
+      <c r="AG55" s="26">
         <v>0.16915133724633585</v>
       </c>
-      <c r="AH55" s="4">
+      <c r="AH55" s="26">
         <v>-8.6325759682878977E-2</v>
       </c>
     </row>
@@ -6627,211 +6660,211 @@
         <v>-6.2920078508334004E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:34" s="13" customFormat="1">
+      <c r="A58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="13">
         <v>16</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="13">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="13">
         <v>2</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="13">
         <v>21</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="14">
         <v>44411</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="13">
         <v>23</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="13">
         <v>25.83</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="13">
         <v>26.26</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="13">
         <v>0.43000000000000327</v>
       </c>
-      <c r="L58">
-        <v>9</v>
-      </c>
-      <c r="M58">
+      <c r="L58" s="13">
+        <v>9</v>
+      </c>
+      <c r="M58" s="13">
         <v>-6.833333333333333</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="13">
         <v>10</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="13">
         <v>-38.506493506493506</v>
       </c>
-      <c r="P58">
-        <v>9</v>
-      </c>
-      <c r="Q58">
+      <c r="P58" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="13">
         <v>2</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="13">
         <v>61</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="13">
         <v>6</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="13">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="13">
         <v>0.02</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="13">
         <v>0.34090909090909094</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="13">
         <v>2.8547542317571215E-2</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="13">
         <v>1.1506675981359392E-2</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="13">
         <v>-5.3974336665260907</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="13">
         <v>-0.81234934624630228</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="13">
         <v>0.8045624825047536</v>
       </c>
-      <c r="AE58">
+      <c r="AE58" s="13">
         <v>-2.410654368343506</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="13">
         <v>-1.6967145296779926E-2</v>
       </c>
-      <c r="AG58">
+      <c r="AG58" s="13">
         <v>-0.14700326218227339</v>
       </c>
-      <c r="AH58">
+      <c r="AH58" s="13">
         <v>-0.20444382391336141</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:34" s="13" customFormat="1">
+      <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="13">
         <v>16</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="13">
         <v>5</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="13">
         <v>2</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="13">
         <v>22</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="14">
         <v>44411</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="13">
         <v>23</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="13">
         <v>27.41</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="13">
         <v>28.22</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="13">
         <v>0.80999999999999872</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="13">
         <v>2</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="13">
         <v>7.833333333333333</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="13">
         <v>4</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="13">
         <v>16.75070844188491</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="13">
         <v>6</v>
       </c>
-      <c r="Q59">
-        <v>9</v>
-      </c>
-      <c r="R59">
+      <c r="Q59" s="13">
+        <v>9</v>
+      </c>
+      <c r="R59" s="13">
         <v>42</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="13">
         <v>80</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="13">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="13">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="13">
         <v>0.96515151515151509</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="13">
         <v>0</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="13">
         <v>0.12100964519001711</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="13">
         <v>0.15563007169776821</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="13">
         <v>2.1292278464846959</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="13">
         <v>-1.4294739588294771</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="13">
         <v>-0.61405599604197125</v>
       </c>
-      <c r="AE59">
+      <c r="AE59" s="13">
         <v>-0.34951245097976347</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" s="13">
         <v>-0.10577825099634872</v>
       </c>
-      <c r="AG59">
+      <c r="AG59" s="13">
         <v>0.19339907966568484</v>
       </c>
-      <c r="AH59">
+      <c r="AH59" s="13">
         <v>-3.9410301356651023E-2</v>
       </c>
     </row>
@@ -7043,315 +7076,315 @@
         <v>-6.6764246682935111E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="10" customFormat="1">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:34" s="32" customFormat="1">
+      <c r="A62" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="32">
         <v>17</v>
       </c>
-      <c r="C62" s="10">
-        <v>9</v>
-      </c>
-      <c r="D62" s="10">
+      <c r="C62" s="32">
+        <v>9</v>
+      </c>
+      <c r="D62" s="32">
         <v>2</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="32">
         <v>20</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="33">
         <v>44411</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="32">
         <v>23</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="32">
         <v>25.19</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="32">
         <v>28.58</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="32">
         <v>3.389999999999997</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="32">
         <v>6</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M62" s="32">
         <v>-1.6833333333333336</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N62" s="32">
         <v>7</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O62" s="32">
         <v>-2.5191734191734199</v>
       </c>
-      <c r="P62" s="10">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="10">
-        <v>9</v>
-      </c>
-      <c r="R62" s="10">
+      <c r="P62" s="32">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="32">
+        <v>9</v>
+      </c>
+      <c r="R62" s="32">
         <v>96</v>
       </c>
-      <c r="S62" s="10">
+      <c r="S62" s="32">
         <v>88</v>
       </c>
-      <c r="T62" s="10">
+      <c r="T62" s="32">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U62" s="10">
+      <c r="U62" s="32">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V62" s="10">
+      <c r="V62" s="32">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="W62" s="10">
+      <c r="W62" s="32">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="X62" s="10">
+      <c r="X62" s="32">
         <v>0.99285714285714288</v>
       </c>
-      <c r="Y62" s="10">
+      <c r="Y62" s="32">
         <v>0</v>
       </c>
-      <c r="Z62" s="10">
+      <c r="Z62" s="32">
         <v>0.10498361822932066</v>
       </c>
-      <c r="AA62" s="10">
+      <c r="AA62" s="32">
         <v>0.11282662279099502</v>
       </c>
-      <c r="AB62" s="10">
+      <c r="AB62" s="32">
         <v>0.41637087961201918</v>
       </c>
-      <c r="AC62" s="10">
+      <c r="AC62" s="32">
         <v>1.6070483039102497</v>
       </c>
-      <c r="AD62" s="10">
+      <c r="AD62" s="32">
         <v>0.11801599274605735</v>
       </c>
-      <c r="AE62" s="10">
+      <c r="AE62" s="32">
         <v>-3.7080269558884493E-2</v>
       </c>
-      <c r="AF62" s="10">
+      <c r="AF62" s="32">
         <v>-0.34906900012117476</v>
       </c>
-      <c r="AG62" s="10">
+      <c r="AG62" s="32">
         <v>-0.1450775872354278</v>
       </c>
-      <c r="AH62" s="10">
+      <c r="AH62" s="32">
         <v>9.5514931513331503E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="13" customFormat="1">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:34" s="23" customFormat="1">
+      <c r="A63" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="23">
         <v>17</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="23">
         <v>1</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="23">
         <v>2</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="23">
         <v>20</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="24">
         <v>44411</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="23">
         <v>23</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H63" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="23">
         <v>29.21</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="23">
         <v>29.88</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="23">
         <v>0.66999999999999815</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="23">
         <v>4</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="23">
         <v>12.433333333333334</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="23">
         <v>6</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="23">
         <v>-0.88921957671957585</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="23">
         <v>8</v>
       </c>
-      <c r="Q63" s="13">
-        <v>9</v>
-      </c>
-      <c r="R63" s="13">
+      <c r="Q63" s="23">
+        <v>9</v>
+      </c>
+      <c r="R63" s="23">
         <v>115</v>
       </c>
-      <c r="S63" s="13">
+      <c r="S63" s="23">
         <v>70</v>
       </c>
-      <c r="T63" s="13">
+      <c r="T63" s="23">
         <v>0.1</v>
       </c>
-      <c r="U63" s="13">
+      <c r="U63" s="23">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V63" s="13">
+      <c r="V63" s="23">
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="W63" s="13">
+      <c r="W63" s="23">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="23">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y63" s="13">
+      <c r="Y63" s="23">
         <v>0.78333333333333333</v>
       </c>
-      <c r="Z63" s="13">
+      <c r="Z63" s="23">
         <v>0.10581527718277794</v>
       </c>
-      <c r="AA63" s="13">
+      <c r="AA63" s="23">
         <v>6.849464987942909E-2</v>
       </c>
-      <c r="AB63" s="13">
+      <c r="AB63" s="23">
         <v>0.7381099607328685</v>
       </c>
-      <c r="AC63" s="13">
+      <c r="AC63" s="23">
         <v>0.67357005508092727</v>
       </c>
-      <c r="AD63" s="13">
+      <c r="AD63" s="23">
         <v>-0.79154584205200207</v>
       </c>
-      <c r="AE63" s="13">
+      <c r="AE63" s="23">
         <v>-6.5397895347924784E-3</v>
       </c>
-      <c r="AF63" s="13">
+      <c r="AF63" s="23">
         <v>-0.41625841702888722</v>
       </c>
-      <c r="AG63" s="13">
+      <c r="AG63" s="23">
         <v>-0.24032118404543815</v>
       </c>
-      <c r="AH63" s="13">
+      <c r="AH63" s="23">
         <v>-6.4907588339120109E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:34" s="13" customFormat="1">
+      <c r="A64" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="13">
         <v>17</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="13">
         <v>4</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="13">
         <v>2</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="13">
         <v>20</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="14">
         <v>44411</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="13">
         <v>23</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="13">
         <v>25.86</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="13">
         <v>28.04</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="13">
         <v>2.1799999999999997</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="13">
         <v>8</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="13">
         <v>-13.516666666666664</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="13">
         <v>10</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="13">
         <v>-32.985347985347985</v>
       </c>
-      <c r="P64">
-        <v>9</v>
-      </c>
-      <c r="Q64">
+      <c r="P64" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="13">
         <v>5</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="13">
         <v>59</v>
       </c>
-      <c r="S64">
-        <v>9</v>
-      </c>
-      <c r="T64">
+      <c r="S64" s="13">
+        <v>9</v>
+      </c>
+      <c r="T64" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="13">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="13">
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="13">
         <v>0</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="13">
         <v>20.18333333333333</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="13">
         <v>6.0622607849171062E-2</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="13">
         <v>7.4590395224759399E-3</v>
       </c>
-      <c r="AB64">
+      <c r="AB64" s="13">
         <v>-3.4033279256510918</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="13">
         <v>-9.4336051966296769E-2</v>
       </c>
-      <c r="AD64">
+      <c r="AD64" s="13">
         <v>0.2739992411488324</v>
       </c>
-      <c r="AE64">
+      <c r="AE64" s="13">
         <v>-0.75263057875066863</v>
       </c>
-      <c r="AF64">
+      <c r="AF64" s="13">
         <v>-0.16344347787838212</v>
       </c>
-      <c r="AG64">
+      <c r="AG64" s="13">
         <v>-2.5645564874896738E-2</v>
       </c>
-      <c r="AH64">
+      <c r="AH64" s="13">
         <v>9.7586512457889199E-2</v>
       </c>
     </row>
@@ -7563,315 +7596,315 @@
         <v>2.8267163687632393E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="4" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:34" s="26" customFormat="1">
+      <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="26">
         <v>17</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="26">
         <v>10</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="26">
         <v>2</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="26">
         <v>22</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="27">
         <v>44411</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="26">
         <v>23</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="26">
         <v>25.96</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="26">
         <v>28.14</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="26">
         <v>2.1799999999999997</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="26">
         <v>10</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="26">
         <v>-34.5</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="26">
         <v>8</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="26">
         <v>-11.871212121212123</v>
       </c>
-      <c r="P67" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q67" s="4">
+      <c r="P67" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="26">
         <v>8</v>
       </c>
-      <c r="R67" s="4">
+      <c r="R67" s="26">
         <v>58</v>
       </c>
-      <c r="S67" s="4">
+      <c r="S67" s="26">
         <v>32</v>
       </c>
-      <c r="T67" s="4">
+      <c r="T67" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U67" s="4">
+      <c r="U67" s="26">
         <v>0.1</v>
       </c>
-      <c r="V67" s="4">
+      <c r="V67" s="26">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W67" s="4">
+      <c r="W67" s="26">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="X67" s="4">
+      <c r="X67" s="26">
         <v>0.60000000000000009</v>
       </c>
-      <c r="Y67" s="4">
+      <c r="Y67" s="26">
         <v>32.65</v>
       </c>
-      <c r="Z67" s="4">
+      <c r="Z67" s="26">
         <v>9.4881777718780619E-2</v>
       </c>
-      <c r="AA67" s="4">
+      <c r="AA67" s="26">
         <v>3.9072453531554585E-2</v>
       </c>
-      <c r="AB67" s="4">
+      <c r="AB67" s="26">
         <v>-0.75229346544976072</v>
       </c>
-      <c r="AC67" s="4">
+      <c r="AC67" s="26">
         <v>0.66687763043961934</v>
       </c>
-      <c r="AD67" s="4">
+      <c r="AD67" s="26">
         <v>0.54005214854503614</v>
       </c>
-      <c r="AE67" s="4">
+      <c r="AE67" s="26">
         <v>0.44484872695464783</v>
       </c>
-      <c r="AF67" s="4">
+      <c r="AF67" s="26">
         <v>-0.1000251764626322</v>
       </c>
-      <c r="AG67" s="4">
+      <c r="AG67" s="26">
         <v>-7.981002614719962E-2</v>
       </c>
-      <c r="AH67" s="4">
+      <c r="AH67" s="26">
         <v>0.11385413387825576</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="4" customFormat="1">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:34" s="26" customFormat="1">
+      <c r="A68" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="26">
         <v>17</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="26">
         <v>3</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="26">
         <v>2</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="26">
         <v>21</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="27">
         <v>44411</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="26">
         <v>23</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="26">
         <v>25.61</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="26">
         <v>28.93</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="26">
         <v>3.3200000000000003</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="26">
         <v>2</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="26">
         <v>19.433333333333337</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="26">
         <v>4</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O68" s="26">
         <v>6.6353276353276325</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="26">
         <v>8</v>
       </c>
-      <c r="Q68" s="4">
-        <v>9</v>
-      </c>
-      <c r="R68" s="4">
+      <c r="Q68" s="26">
+        <v>9</v>
+      </c>
+      <c r="R68" s="26">
         <v>89</v>
       </c>
-      <c r="S68" s="4">
+      <c r="S68" s="26">
         <v>102</v>
       </c>
-      <c r="T68" s="4">
+      <c r="T68" s="26">
         <v>0.1</v>
       </c>
-      <c r="U68" s="4">
+      <c r="U68" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V68" s="4">
+      <c r="V68" s="26">
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="W68" s="4">
+      <c r="W68" s="26">
         <v>1.5625E-2</v>
       </c>
-      <c r="X68" s="4">
+      <c r="X68" s="26">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y68" s="4">
+      <c r="Y68" s="26">
         <v>0</v>
       </c>
-      <c r="Z68" s="4">
+      <c r="Z68" s="26">
         <v>0.10581527718277794</v>
       </c>
-      <c r="AA68" s="4">
+      <c r="AA68" s="26">
         <v>0.10832926271990553</v>
       </c>
-      <c r="AB68" s="4">
+      <c r="AB68" s="26">
         <v>0.91970701944177946</v>
       </c>
-      <c r="AC68" s="4">
+      <c r="AC68" s="26">
         <v>0.65179757967716312</v>
       </c>
-      <c r="AD68" s="4">
+      <c r="AD68" s="26">
         <v>-0.37792153761769565</v>
       </c>
-      <c r="AE68" s="4">
+      <c r="AE68" s="26">
         <v>-0.36776494147251076</v>
       </c>
-      <c r="AF68" s="4">
+      <c r="AF68" s="26">
         <v>-0.46627808969313767</v>
       </c>
-      <c r="AG68" s="4">
+      <c r="AG68" s="26">
         <v>-0.19354092709366977</v>
       </c>
-      <c r="AH68" s="4">
+      <c r="AH68" s="26">
         <v>-4.7817392016071547E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:34" s="4" customFormat="1">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:34" s="26" customFormat="1">
+      <c r="A69" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="26">
         <v>17</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="26">
         <v>7</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="26">
         <v>2</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="26">
         <v>22</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="27">
         <v>44411</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="26">
         <v>23</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="26">
         <v>26.72</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="26">
         <v>28.06</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="26">
         <v>1.3399999999999999</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="26">
         <v>1</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="26">
         <v>20.833333333333336</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="26">
         <v>2</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="26">
         <v>17.439099172651808</v>
       </c>
-      <c r="P69" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>9</v>
-      </c>
-      <c r="R69" s="4">
+      <c r="P69" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="26">
+        <v>9</v>
+      </c>
+      <c r="R69" s="26">
         <v>79</v>
       </c>
-      <c r="S69" s="4">
+      <c r="S69" s="26">
         <v>180</v>
       </c>
-      <c r="T69" s="4">
+      <c r="T69" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U69" s="4">
+      <c r="U69" s="26">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V69" s="4">
+      <c r="V69" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="W69" s="4">
+      <c r="W69" s="26">
         <v>8.9285714285714281E-3</v>
       </c>
-      <c r="X69" s="4">
+      <c r="X69" s="26">
         <v>0.99285714285714288</v>
       </c>
-      <c r="Y69" s="4">
+      <c r="Y69" s="26">
         <v>0</v>
       </c>
-      <c r="Z69" s="4">
+      <c r="Z69" s="26">
         <v>0.10498361822932067</v>
       </c>
-      <c r="AA69" s="4">
+      <c r="AA69" s="26">
         <v>0.23099154283491838</v>
       </c>
-      <c r="AB69" s="4">
+      <c r="AB69" s="26">
         <v>0.61858681538825089</v>
       </c>
-      <c r="AC69" s="4">
+      <c r="AC69" s="26">
         <v>1.2923459046611143</v>
       </c>
-      <c r="AD69" s="4">
+      <c r="AD69" s="26">
         <v>1.0061357879810193</v>
       </c>
-      <c r="AE69" s="4">
+      <c r="AE69" s="26">
         <v>-0.22682565419473777</v>
       </c>
-      <c r="AF69" s="4">
+      <c r="AF69" s="26">
         <v>-0.2715855423621194</v>
       </c>
-      <c r="AG69" s="4">
+      <c r="AG69" s="26">
         <v>-0.12952176279990124</v>
       </c>
-      <c r="AH69" s="4">
+      <c r="AH69" s="26">
         <v>3.7163698712396637E-2</v>
       </c>
     </row>
@@ -12135,5 +12168,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/validation_cohort.xlsx
+++ b/data/validation_cohort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\NoSeMaze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC9787-0D00-4AD9-A774-AF96491B5D75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E44902-5FFC-47B6-ADA6-C2FE86364507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -252,6 +252,9 @@
   <si>
     <t>chasing_pc7</t>
   </si>
+  <si>
+    <t>RC</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -376,6 +379,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH110"/>
+  <dimension ref="A1:AI110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="V82" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,7 +736,7 @@
     <col min="34" max="34" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="AH1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AI1" s="34" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="26" customFormat="1">
+    <row r="2" spans="1:35" s="26" customFormat="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -939,8 +946,11 @@
       <c r="AH2" s="26">
         <v>1.4215480694516712E-2</v>
       </c>
+      <c r="AI2" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" s="13" customFormat="1">
+    <row r="3" spans="1:35" s="13" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1043,8 +1053,11 @@
       <c r="AH3" s="13">
         <v>-5.9458112757302922E-2</v>
       </c>
+      <c r="AI3" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1160,11 @@
       <c r="AH4">
         <v>-9.1692341481480033E-2</v>
       </c>
+      <c r="AI4" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" s="13" customFormat="1">
+    <row r="5" spans="1:35" s="13" customFormat="1">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1251,8 +1267,11 @@
       <c r="AH5" s="13">
         <v>0.31481387084336931</v>
       </c>
+      <c r="AI5" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" s="20" customFormat="1">
+    <row r="6" spans="1:35" s="20" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -1355,8 +1374,11 @@
       <c r="AH6" s="20">
         <v>7.1011774948955414E-2</v>
       </c>
+      <c r="AI6" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" s="13" customFormat="1">
+    <row r="7" spans="1:35" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1459,8 +1481,11 @@
       <c r="AH7" s="13">
         <v>7.1917021958238597E-2</v>
       </c>
+      <c r="AI7" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1563,8 +1588,11 @@
       <c r="AH8">
         <v>0.14712096439131225</v>
       </c>
+      <c r="AI8" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" s="4" customFormat="1">
+    <row r="9" spans="1:35" s="4" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1667,8 +1695,11 @@
       <c r="AH9" s="4">
         <v>-2.6364533048131675E-2</v>
       </c>
+      <c r="AI9" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1771,8 +1802,11 @@
       <c r="AH10">
         <v>0.11678692150203217</v>
       </c>
+      <c r="AI10" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" s="4" customFormat="1">
+    <row r="11" spans="1:35" s="4" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1875,8 +1909,11 @@
       <c r="AH11" s="4">
         <v>1.6130675087923523E-2</v>
       </c>
+      <c r="AI11" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" s="10" customFormat="1">
+    <row r="12" spans="1:35" s="10" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -1979,8 +2016,11 @@
       <c r="AH12" s="10">
         <v>1.1133828775048505E-2</v>
       </c>
+      <c r="AI12" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" s="26" customFormat="1">
+    <row r="13" spans="1:35" s="26" customFormat="1">
       <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
@@ -2083,8 +2123,11 @@
       <c r="AH13" s="26">
         <v>2.5668669765817789E-2</v>
       </c>
+      <c r="AI13" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" s="4" customFormat="1">
+    <row r="14" spans="1:35" s="4" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2187,8 +2230,11 @@
       <c r="AH14" s="4">
         <v>4.6571300556951745E-2</v>
       </c>
+      <c r="AI14" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" s="23" customFormat="1">
+    <row r="15" spans="1:35" s="23" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
@@ -2291,8 +2337,11 @@
       <c r="AH15" s="23">
         <v>7.7806497279441542E-2</v>
       </c>
+      <c r="AI15" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2395,8 +2444,11 @@
       <c r="AH16">
         <v>2.3574047017018027E-2</v>
       </c>
+      <c r="AI16" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" s="13" customFormat="1">
+    <row r="17" spans="1:35" s="13" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
@@ -2499,8 +2551,11 @@
       <c r="AH17" s="13">
         <v>2.5668669765817789E-2</v>
       </c>
+      <c r="AI17" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" s="23" customFormat="1">
+    <row r="18" spans="1:35" s="23" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -2603,8 +2658,11 @@
       <c r="AH18" s="23">
         <v>0.13667154520150904</v>
       </c>
+      <c r="AI18" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" s="13" customFormat="1">
+    <row r="19" spans="1:35" s="13" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -2707,8 +2765,11 @@
       <c r="AH19" s="13">
         <v>-4.7153357323342013E-2</v>
       </c>
+      <c r="AI19" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2811,8 +2872,11 @@
       <c r="AH20">
         <v>4.145000097606865E-2</v>
       </c>
+      <c r="AI20" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" s="23" customFormat="1">
+    <row r="21" spans="1:35" s="23" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
@@ -2915,8 +2979,11 @@
       <c r="AH21" s="23">
         <v>3.2107771947682787E-2</v>
       </c>
+      <c r="AI21" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" s="17" customFormat="1">
+    <row r="22" spans="1:35" s="17" customFormat="1">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -3019,8 +3086,11 @@
       <c r="AH22" s="17">
         <v>-3.8868204230427791E-2</v>
       </c>
+      <c r="AI22" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3123,8 +3193,11 @@
       <c r="AH23">
         <v>-6.4396330234947174E-2</v>
       </c>
+      <c r="AI23" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3227,8 +3300,11 @@
       <c r="AH24">
         <v>-8.145430145615111E-2</v>
       </c>
+      <c r="AI24" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3331,8 +3407,11 @@
       <c r="AH25">
         <v>-9.080949567426945E-2</v>
       </c>
+      <c r="AI25" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3435,8 +3514,11 @@
       <c r="AH26">
         <v>-5.4826809183402936E-2</v>
       </c>
+      <c r="AI26" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3539,8 +3621,11 @@
       <c r="AH27">
         <v>-0.10547409075230484</v>
       </c>
+      <c r="AI27" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" s="13" customFormat="1">
+    <row r="28" spans="1:35" s="13" customFormat="1">
       <c r="A28" s="12" t="s">
         <v>27</v>
       </c>
@@ -3643,8 +3728,11 @@
       <c r="AH28" s="13">
         <v>-0.11079716493742139</v>
       </c>
+      <c r="AI28" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" s="13" customFormat="1">
+    <row r="29" spans="1:35" s="13" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -3747,8 +3835,11 @@
       <c r="AH29" s="13">
         <v>-1.2945994971749798E-2</v>
       </c>
+      <c r="AI29" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3851,8 +3942,11 @@
       <c r="AH30">
         <v>-0.1004492402563797</v>
       </c>
+      <c r="AI30" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3955,8 +4049,11 @@
       <c r="AH31">
         <v>2.3743594945392094E-2</v>
       </c>
+      <c r="AI31" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" s="32" customFormat="1">
+    <row r="32" spans="1:35" s="32" customFormat="1">
       <c r="A32" s="31" t="s">
         <v>31</v>
       </c>
@@ -4059,8 +4156,11 @@
       <c r="AH32" s="32">
         <v>4.1498196831973935E-2</v>
       </c>
+      <c r="AI32" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" s="23" customFormat="1">
+    <row r="33" spans="1:35" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>32</v>
       </c>
@@ -4163,8 +4263,11 @@
       <c r="AH33" s="23">
         <v>-0.13585696253665611</v>
       </c>
+      <c r="AI33" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" s="13" customFormat="1">
+    <row r="34" spans="1:35" s="13" customFormat="1">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -4267,8 +4370,11 @@
       <c r="AH34" s="13">
         <v>-4.9792250461289315E-2</v>
       </c>
+      <c r="AI34" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" s="26" customFormat="1">
+    <row r="35" spans="1:35" s="26" customFormat="1">
       <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
@@ -4371,8 +4477,11 @@
       <c r="AH35" s="26">
         <v>-9.5937401069145098E-2</v>
       </c>
+      <c r="AI35" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4475,8 +4584,11 @@
       <c r="AH36">
         <v>1.2746955363940025E-2</v>
       </c>
+      <c r="AI36" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -4579,8 +4691,11 @@
       <c r="AH37">
         <v>-6.0175510259370792E-3</v>
       </c>
+      <c r="AI37" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -4683,8 +4798,11 @@
       <c r="AH38">
         <v>-2.9751914180543799E-2</v>
       </c>
+      <c r="AI38" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" s="26" customFormat="1">
+    <row r="39" spans="1:35" s="26" customFormat="1">
       <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
@@ -4787,8 +4905,11 @@
       <c r="AH39" s="26">
         <v>-8.9405668254176882E-2</v>
       </c>
+      <c r="AI39" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" s="13" customFormat="1">
+    <row r="40" spans="1:35" s="13" customFormat="1">
       <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
@@ -4891,8 +5012,11 @@
       <c r="AH40" s="13">
         <v>9.4325347463321288E-2</v>
       </c>
+      <c r="AI40" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -4995,8 +5119,11 @@
       <c r="AH41">
         <v>-1.3834712643372798E-2</v>
       </c>
+      <c r="AI41" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" s="7" customFormat="1">
+    <row r="42" spans="1:35" s="7" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -5099,8 +5226,11 @@
       <c r="AH42" s="7">
         <v>6.1135152680562861E-2</v>
       </c>
+      <c r="AI42" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" s="13" customFormat="1">
+    <row r="43" spans="1:35" s="13" customFormat="1">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -5203,8 +5333,11 @@
       <c r="AH43" s="13">
         <v>5.8703006155872817E-2</v>
       </c>
+      <c r="AI43" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -5307,8 +5440,11 @@
       <c r="AH44">
         <v>6.5314164764663493E-2</v>
       </c>
+      <c r="AI44" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" s="29" customFormat="1">
+    <row r="45" spans="1:35" s="29" customFormat="1">
       <c r="A45" s="28" t="s">
         <v>4</v>
       </c>
@@ -5411,8 +5547,11 @@
       <c r="AH45" s="29">
         <v>0.18267368025607938</v>
       </c>
+      <c r="AI45" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" s="13" customFormat="1">
+    <row r="46" spans="1:35" s="13" customFormat="1">
       <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
@@ -5515,8 +5654,11 @@
       <c r="AH46" s="13">
         <v>1.0716257521643534E-2</v>
       </c>
+      <c r="AI46" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" s="23" customFormat="1">
+    <row r="47" spans="1:35" s="23" customFormat="1">
       <c r="A47" s="22" t="s">
         <v>6</v>
       </c>
@@ -5619,8 +5761,11 @@
       <c r="AH47" s="23">
         <v>0.11371119377449639</v>
       </c>
+      <c r="AI47" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5723,8 +5868,11 @@
       <c r="AH48">
         <v>9.0809642256892115E-2</v>
       </c>
+      <c r="AI48" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5827,8 +5975,11 @@
       <c r="AH49">
         <v>0.20555891088111156</v>
       </c>
+      <c r="AI49" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" s="4" customFormat="1">
+    <row r="50" spans="1:35" s="4" customFormat="1">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -5931,8 +6082,11 @@
       <c r="AH50" s="4">
         <v>-1.9761895627801295E-2</v>
       </c>
+      <c r="AI50" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" s="4" customFormat="1">
+    <row r="51" spans="1:35" s="4" customFormat="1">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -6035,8 +6189,11 @@
       <c r="AH51" s="4">
         <v>2.3208270646608485E-2</v>
       </c>
+      <c r="AI51" s="26" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" s="17" customFormat="1">
+    <row r="52" spans="1:35" s="17" customFormat="1">
       <c r="A52" s="16" t="s">
         <v>21</v>
       </c>
@@ -6139,8 +6296,11 @@
       <c r="AH52" s="17">
         <v>1.7780099771787957E-2</v>
       </c>
+      <c r="AI52" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -6243,8 +6403,11 @@
       <c r="AH53">
         <v>-3.3520161757445717E-2</v>
       </c>
+      <c r="AI53" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
@@ -6347,8 +6510,11 @@
       <c r="AH54">
         <v>-0.11249853774404929</v>
       </c>
+      <c r="AI54" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" s="26" customFormat="1">
+    <row r="55" spans="1:35" s="26" customFormat="1">
       <c r="A55" s="25" t="s">
         <v>24</v>
       </c>
@@ -6451,8 +6617,11 @@
       <c r="AH55" s="26">
         <v>-8.6325759682878977E-2</v>
       </c>
+      <c r="AI55" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -6555,8 +6724,11 @@
       <c r="AH56">
         <v>6.1335993717866848E-2</v>
       </c>
+      <c r="AI56" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
@@ -6659,8 +6831,11 @@
       <c r="AH57">
         <v>-6.2920078508334004E-2</v>
       </c>
+      <c r="AI57" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" s="13" customFormat="1">
+    <row r="58" spans="1:35" s="13" customFormat="1">
       <c r="A58" s="12" t="s">
         <v>27</v>
       </c>
@@ -6763,8 +6938,11 @@
       <c r="AH58" s="13">
         <v>-0.20444382391336141</v>
       </c>
+      <c r="AI58" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" s="13" customFormat="1">
+    <row r="59" spans="1:35" s="13" customFormat="1">
       <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
@@ -6867,8 +7045,11 @@
       <c r="AH59" s="13">
         <v>-3.9410301356651023E-2</v>
       </c>
+      <c r="AI59" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -6971,8 +7152,11 @@
       <c r="AH60">
         <v>6.0200424861709588E-2</v>
       </c>
+      <c r="AI60" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -7075,8 +7259,11 @@
       <c r="AH61">
         <v>-6.6764246682935111E-2</v>
       </c>
+      <c r="AI61" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:34" s="32" customFormat="1">
+    <row r="62" spans="1:35" s="32" customFormat="1">
       <c r="A62" s="31" t="s">
         <v>31</v>
       </c>
@@ -7179,8 +7366,11 @@
       <c r="AH62" s="32">
         <v>9.5514931513331503E-3</v>
       </c>
+      <c r="AI62" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:34" s="23" customFormat="1">
+    <row r="63" spans="1:35" s="23" customFormat="1">
       <c r="A63" s="22" t="s">
         <v>32</v>
       </c>
@@ -7283,8 +7473,11 @@
       <c r="AH63" s="23">
         <v>-6.4907588339120109E-2</v>
       </c>
+      <c r="AI63" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:34" s="13" customFormat="1">
+    <row r="64" spans="1:35" s="13" customFormat="1">
       <c r="A64" s="12" t="s">
         <v>33</v>
       </c>
@@ -7387,8 +7580,11 @@
       <c r="AH64" s="13">
         <v>9.7586512457889199E-2</v>
       </c>
+      <c r="AI64" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -7491,8 +7687,11 @@
       <c r="AH65">
         <v>2.8705842845512492E-2</v>
       </c>
+      <c r="AI65" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -7595,8 +7794,11 @@
       <c r="AH66">
         <v>2.8267163687632393E-2</v>
       </c>
+      <c r="AI66" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:34" s="26" customFormat="1">
+    <row r="67" spans="1:35" s="26" customFormat="1">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -7699,8 +7901,11 @@
       <c r="AH67" s="26">
         <v>0.11385413387825576</v>
       </c>
+      <c r="AI67" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" s="26" customFormat="1">
+    <row r="68" spans="1:35" s="26" customFormat="1">
       <c r="A68" s="25" t="s">
         <v>37</v>
       </c>
@@ -7803,8 +8008,11 @@
       <c r="AH68" s="26">
         <v>-4.7817392016071547E-2</v>
       </c>
+      <c r="AI68" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:34" s="26" customFormat="1">
+    <row r="69" spans="1:35" s="26" customFormat="1">
       <c r="A69" s="25" t="s">
         <v>38</v>
       </c>
@@ -7907,8 +8115,11 @@
       <c r="AH69" s="26">
         <v>3.7163698712396637E-2</v>
       </c>
+      <c r="AI69" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:34" s="13" customFormat="1">
+    <row r="70" spans="1:35" s="13" customFormat="1">
       <c r="A70" s="12" t="s">
         <v>39</v>
       </c>
@@ -8011,8 +8222,11 @@
       <c r="AH70" s="13">
         <v>-1.915104356460819E-2</v>
       </c>
+      <c r="AI70" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -8115,8 +8329,11 @@
       <c r="AH71">
         <v>-6.6346261661536052E-2</v>
       </c>
+      <c r="AI71" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:34" s="7" customFormat="1">
+    <row r="72" spans="1:35" s="7" customFormat="1">
       <c r="A72" s="6" t="s">
         <v>5</v>
       </c>
@@ -8219,8 +8436,11 @@
       <c r="AH72" s="7">
         <v>-0.10373514161646315</v>
       </c>
+      <c r="AI72" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -8323,8 +8543,11 @@
       <c r="AH73">
         <v>-3.7703314971171381E-2</v>
       </c>
+      <c r="AI73" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -8427,8 +8650,11 @@
       <c r="AH74">
         <v>-0.36571692913184506</v>
       </c>
+      <c r="AI74" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -8531,8 +8757,11 @@
       <c r="AH75">
         <v>-0.15729858647664866</v>
       </c>
+      <c r="AI75" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -8635,8 +8864,11 @@
       <c r="AH76">
         <v>-9.9163744969743728E-2</v>
       </c>
+      <c r="AI76" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
@@ -8739,8 +8971,11 @@
       <c r="AH77">
         <v>-0.10510170146334948</v>
       </c>
+      <c r="AI77" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -8843,8 +9078,11 @@
       <c r="AH78">
         <v>-7.7679707238208121E-2</v>
       </c>
+      <c r="AI78" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -8947,8 +9185,11 @@
       <c r="AH79">
         <v>2.4918750884176676E-2</v>
       </c>
+      <c r="AI79" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
@@ -9051,8 +9292,11 @@
       <c r="AH80">
         <v>3.9623733361757098E-2</v>
       </c>
+      <c r="AI80" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81" s="1" t="s">
         <v>34</v>
       </c>
@@ -9155,8 +9399,11 @@
       <c r="AH81">
         <v>-0.11639323601921583</v>
       </c>
+      <c r="AI81" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -9259,8 +9506,11 @@
       <c r="AH82">
         <v>0.2085570594956368</v>
       </c>
+      <c r="AI82" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -9363,8 +9613,11 @@
       <c r="AH83">
         <v>-4.0454404227739427E-4</v>
       </c>
+      <c r="AI83" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
@@ -9467,8 +9720,11 @@
       <c r="AH84">
         <v>-2.6663371030198169E-2</v>
       </c>
+      <c r="AI84" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85" s="1" t="s">
         <v>15</v>
       </c>
@@ -9571,8 +9827,11 @@
       <c r="AH85">
         <v>0.32198380965564988</v>
       </c>
+      <c r="AI85" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -9675,8 +9934,11 @@
       <c r="AH86">
         <v>-0.17719142815607508</v>
       </c>
+      <c r="AI86" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -9779,8 +10041,11 @@
       <c r="AH87">
         <v>-0.18536958432444861</v>
       </c>
+      <c r="AI87" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -9883,8 +10148,11 @@
       <c r="AH88">
         <v>-0.1817236683098091</v>
       </c>
+      <c r="AI88" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -9987,8 +10255,11 @@
       <c r="AH89">
         <v>-4.4072025206525383E-3</v>
       </c>
+      <c r="AI89" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
@@ -10091,8 +10362,11 @@
       <c r="AH90">
         <v>8.5759269840938439E-3</v>
       </c>
+      <c r="AI90" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -10189,8 +10463,11 @@
       <c r="AH91">
         <v>0.32495220190133756</v>
       </c>
+      <c r="AI91" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -10293,8 +10570,11 @@
       <c r="AH92">
         <v>4.1353882206933833E-2</v>
       </c>
+      <c r="AI92" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
@@ -10397,8 +10677,11 @@
       <c r="AH93">
         <v>1.7793664021209358E-2</v>
       </c>
+      <c r="AI93" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
@@ -10501,8 +10784,11 @@
       <c r="AH94">
         <v>-1.7775697250087694E-2</v>
       </c>
+      <c r="AI94" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -10605,8 +10891,11 @@
       <c r="AH95">
         <v>2.4553705881192107E-2</v>
       </c>
+      <c r="AI95" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
@@ -10709,8 +10998,11 @@
       <c r="AH96">
         <v>0.11887819000300723</v>
       </c>
+      <c r="AI96" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -10813,8 +11105,11 @@
       <c r="AH97">
         <v>1.796947898415208E-2</v>
       </c>
+      <c r="AI97" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98" s="1" t="s">
         <v>37</v>
       </c>
@@ -10917,8 +11212,11 @@
       <c r="AH98">
         <v>1.4519885585177717E-2</v>
       </c>
+      <c r="AI98" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -11021,8 +11319,11 @@
       <c r="AH99">
         <v>1.4341265806349994E-2</v>
       </c>
+      <c r="AI99" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100" s="1" t="s">
         <v>40</v>
       </c>
@@ -11125,8 +11426,11 @@
       <c r="AH100">
         <v>9.8450345223554003E-2</v>
       </c>
+      <c r="AI100" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -11229,8 +11533,11 @@
       <c r="AH101">
         <v>-1.6500249825885193E-4</v>
       </c>
+      <c r="AI101" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -11333,8 +11640,11 @@
       <c r="AH102">
         <v>-1.9597546626835111E-3</v>
       </c>
+      <c r="AI102" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -11437,8 +11747,11 @@
       <c r="AH103">
         <v>3.8211494239931164E-2</v>
       </c>
+      <c r="AI103" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -11541,8 +11854,11 @@
       <c r="AH104">
         <v>-0.1104424822266545</v>
       </c>
+      <c r="AI104" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -11645,8 +11961,11 @@
       <c r="AH105">
         <v>-7.6674965211689844E-2</v>
       </c>
+      <c r="AI105" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -11749,8 +12068,11 @@
       <c r="AH106">
         <v>-7.0273621736750266E-2</v>
       </c>
+      <c r="AI106" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107" s="1" t="s">
         <v>29</v>
       </c>
@@ -11853,8 +12175,11 @@
       <c r="AH107">
         <v>0.10870363275137336</v>
       </c>
+      <c r="AI107" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
@@ -11957,8 +12282,11 @@
       <c r="AH108">
         <v>-0.116447573156335</v>
       </c>
+      <c r="AI108" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109" s="1" t="s">
         <v>36</v>
       </c>
@@ -12061,8 +12389,11 @@
       <c r="AH109">
         <v>5.7493909701203584E-2</v>
       </c>
+      <c r="AI109" s="26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110" s="1" t="s">
         <v>38</v>
       </c>
@@ -12164,6 +12495,9 @@
       </c>
       <c r="AH110">
         <v>6.9325070320416585E-2</v>
+      </c>
+      <c r="AI110" s="26" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/validation_cohort.xlsx
+++ b/data/validation_cohort.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\NoSeMaze\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang.kelsch\Documents\GitHub\RichClubs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E44902-5FFC-47B6-ADA6-C2FE86364507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="82">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -255,12 +254,24 @@
   <si>
     <t>RC</t>
   </si>
+  <si>
+    <t>histology</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -279,6 +290,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -344,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -373,13 +390,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,50 +713,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V82" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.6328125" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.90625" customWidth="1"/>
+    <col min="19" max="19" width="19.08984375" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="30.140625" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" customWidth="1"/>
-    <col min="27" max="27" width="22.42578125" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="31" width="15.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.36328125" customWidth="1"/>
+    <col min="22" max="22" width="28.453125" customWidth="1"/>
+    <col min="23" max="23" width="29.6328125" customWidth="1"/>
+    <col min="24" max="24" width="20.6328125" customWidth="1"/>
+    <col min="25" max="25" width="30.08984375" customWidth="1"/>
+    <col min="26" max="26" width="13.6328125" customWidth="1"/>
+    <col min="27" max="27" width="22.453125" customWidth="1"/>
+    <col min="28" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="31" width="15.453125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="15.453125" customWidth="1"/>
+    <col min="34" max="34" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,11 +859,14 @@
       <c r="AH1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AI1" s="31" t="s">
         <v>77</v>
       </c>
+      <c r="AJ1" s="31" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1">
+    <row r="2" spans="1:36" s="26" customFormat="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -950,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="13" customFormat="1">
+    <row r="3" spans="1:36" s="13" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="AI3" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ3" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="13" customFormat="1">
+    <row r="5" spans="1:36" s="13" customFormat="1">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1270,8 +1296,11 @@
       <c r="AI5" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ5" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" s="20" customFormat="1">
+    <row r="6" spans="1:36" s="20" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -1377,8 +1406,11 @@
       <c r="AI6" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ6" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" s="13" customFormat="1">
+    <row r="7" spans="1:36" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1484,8 +1516,11 @@
       <c r="AI7" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ7" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="4" customFormat="1">
+    <row r="9" spans="1:36" s="4" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="4" customFormat="1">
+    <row r="11" spans="1:36" s="4" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="10" customFormat="1">
+    <row r="12" spans="1:36" s="10" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="26" customFormat="1">
+    <row r="13" spans="1:36" s="26" customFormat="1">
       <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="4" customFormat="1">
+    <row r="14" spans="1:36" s="4" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="23" customFormat="1">
+    <row r="15" spans="1:36" s="23" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
@@ -2340,8 +2375,11 @@
       <c r="AI15" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ15" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="13" customFormat="1">
+    <row r="17" spans="1:36" s="13" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
@@ -2554,8 +2592,11 @@
       <c r="AI17" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ17" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" s="23" customFormat="1">
+    <row r="18" spans="1:36" s="23" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -2661,8 +2702,11 @@
       <c r="AI18" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ18" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" s="13" customFormat="1">
+    <row r="19" spans="1:36" s="13" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -2768,8 +2812,11 @@
       <c r="AI19" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ19" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:36">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2876,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="23" customFormat="1">
+    <row r="21" spans="1:36" s="23" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
@@ -2982,8 +3029,11 @@
       <c r="AI21" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ21" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" s="17" customFormat="1">
+    <row r="22" spans="1:36" s="17" customFormat="1">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -3089,8 +3139,11 @@
       <c r="AI22" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ22" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:36">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3197,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:36">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3304,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3411,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:36">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:36">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3625,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="13" customFormat="1">
+    <row r="28" spans="1:36" s="13" customFormat="1">
       <c r="A28" s="12" t="s">
         <v>27</v>
       </c>
@@ -3731,8 +3784,11 @@
       <c r="AI28" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ28" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" s="13" customFormat="1">
+    <row r="29" spans="1:36" s="13" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -3838,115 +3894,121 @@
       <c r="AI29" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ29" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:36" s="13" customFormat="1">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="13">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="13">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="13">
         <v>17</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="14">
         <v>44382</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="13">
         <v>22</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="13">
         <v>24.56</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="13">
         <v>25.99</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="13">
         <v>1.4299999999999997</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="13">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="13">
         <v>37.466666666666669</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="13">
         <v>6</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="13">
         <v>7.5489510489510465</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="13">
         <v>8</v>
       </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-      <c r="R30">
+      <c r="Q30" s="13">
+        <v>9</v>
+      </c>
+      <c r="R30" s="13">
         <v>58</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="13">
         <v>68</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="13">
         <v>0.1</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="13">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="13">
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="13">
         <v>2.4833333333333329</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="13">
         <v>4</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="13">
         <v>0.11528466607785856</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="13">
         <v>9.529068088646736E-2</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="13">
         <v>1.1953090269426485</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="13">
         <v>0.24464643846805567</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="13">
         <v>0.3387705327411546</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="13">
         <v>3.7599199457199355E-2</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="13">
         <v>-0.20664064225661777</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="13">
         <v>0.13006168130830489</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="13">
         <v>-0.1004492402563797</v>
       </c>
-      <c r="AI30" s="26" t="b">
-        <v>0</v>
+      <c r="AI30" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:36">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4053,114 +4115,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="32" customFormat="1">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:36" s="29" customFormat="1">
+      <c r="A32" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="29">
         <v>14</v>
       </c>
-      <c r="C32" s="32">
-        <v>9</v>
-      </c>
-      <c r="D32" s="32">
+      <c r="C32" s="29">
+        <v>9</v>
+      </c>
+      <c r="D32" s="29">
         <v>1</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="29">
         <v>16</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="30">
         <v>44382</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="29">
         <v>22</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="29">
         <v>23.82</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="29">
         <v>25.88</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="29">
         <v>2.0599999999999987</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="29">
         <v>10</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="29">
         <v>-20.483333333333334</v>
       </c>
-      <c r="N32" s="32">
+      <c r="N32" s="29">
         <v>4</v>
       </c>
-      <c r="O32" s="32">
+      <c r="O32" s="29">
         <v>14.180097680097679</v>
       </c>
-      <c r="P32" s="32">
+      <c r="P32" s="29">
         <v>5</v>
       </c>
-      <c r="Q32" s="32">
-        <v>9</v>
-      </c>
-      <c r="R32" s="32">
+      <c r="Q32" s="29">
+        <v>9</v>
+      </c>
+      <c r="R32" s="29">
         <v>34</v>
       </c>
-      <c r="S32" s="32">
+      <c r="S32" s="29">
         <v>38</v>
       </c>
-      <c r="T32" s="32">
+      <c r="T32" s="29">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="U32" s="32">
+      <c r="U32" s="29">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V32" s="32">
+      <c r="V32" s="29">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="W32" s="32">
+      <c r="W32" s="29">
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="X32" s="32">
+      <c r="X32" s="29">
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y32" s="32">
+      <c r="Y32" s="29">
         <v>2.333333333333333</v>
       </c>
-      <c r="Z32" s="32">
+      <c r="Z32" s="29">
         <v>0.12281138285623541</v>
       </c>
-      <c r="AA32" s="32">
+      <c r="AA32" s="29">
         <v>8.1216811854431303E-2</v>
       </c>
-      <c r="AB32" s="32">
+      <c r="AB32" s="29">
         <v>2.1215446071388042</v>
       </c>
-      <c r="AC32" s="32">
+      <c r="AC32" s="29">
         <v>-2.4183896056494052</v>
       </c>
-      <c r="AD32" s="32">
+      <c r="AD32" s="29">
         <v>-1.5571379702405241</v>
       </c>
-      <c r="AE32" s="32">
+      <c r="AE32" s="29">
         <v>0.47918414776686336</v>
       </c>
-      <c r="AF32" s="32">
+      <c r="AF32" s="29">
         <v>0.27364502203743857</v>
       </c>
-      <c r="AG32" s="32">
+      <c r="AG32" s="29">
         <v>5.0528236816361184E-2</v>
       </c>
-      <c r="AH32" s="32">
+      <c r="AH32" s="29">
         <v>4.1498196831973935E-2</v>
       </c>
       <c r="AI32" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="23" customFormat="1">
+    <row r="33" spans="1:36" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>32</v>
       </c>
@@ -4266,8 +4328,11 @@
       <c r="AI33" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ33" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" s="13" customFormat="1">
+    <row r="34" spans="1:36" s="13" customFormat="1">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -4373,8 +4438,11 @@
       <c r="AI34" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ34" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" s="26" customFormat="1">
+    <row r="35" spans="1:36" s="26" customFormat="1">
       <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
@@ -4481,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:36">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4588,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:36">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -4695,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:36">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -4802,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="26" customFormat="1">
+    <row r="39" spans="1:36" s="26" customFormat="1">
       <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
@@ -4909,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="13" customFormat="1">
+    <row r="40" spans="1:36" s="13" customFormat="1">
       <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
@@ -5015,8 +5083,11 @@
       <c r="AI40" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ40" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:36">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5123,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="7" customFormat="1">
+    <row r="42" spans="1:36" s="7" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -5230,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="13" customFormat="1">
+    <row r="43" spans="1:36" s="13" customFormat="1">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -5336,8 +5407,11 @@
       <c r="AI43" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ43" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:36">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -5444,114 +5518,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="29" customFormat="1">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:36" s="36" customFormat="1">
+      <c r="A45" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="36">
         <v>15</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="36">
         <v>7</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="36">
         <v>2</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="36">
         <v>22</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="37">
         <v>44411</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="36">
         <v>23</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="36">
         <v>28.11</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="36">
         <v>30.11</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="36">
         <v>2</v>
       </c>
-      <c r="L45" s="29">
+      <c r="L45" s="36">
         <v>8</v>
       </c>
-      <c r="M45" s="29">
+      <c r="M45" s="36">
         <v>-11</v>
       </c>
-      <c r="N45" s="29">
+      <c r="N45" s="36">
         <v>2</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O45" s="36">
         <v>34.632577484834655</v>
       </c>
-      <c r="P45" s="29">
+      <c r="P45" s="36">
         <v>5</v>
       </c>
-      <c r="Q45" s="29">
-        <v>9</v>
-      </c>
-      <c r="R45" s="29">
+      <c r="Q45" s="36">
+        <v>9</v>
+      </c>
+      <c r="R45" s="36">
         <v>23</v>
       </c>
-      <c r="S45" s="29">
+      <c r="S45" s="36">
         <v>260</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="36">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="U45" s="29">
+      <c r="U45" s="36">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V45" s="29">
+      <c r="V45" s="36">
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="W45" s="29">
+      <c r="W45" s="36">
         <v>8.2644628099173556E-3</v>
       </c>
-      <c r="X45" s="29">
+      <c r="X45" s="36">
         <v>0.2</v>
       </c>
-      <c r="Y45" s="29">
+      <c r="Y45" s="36">
         <v>12.166666666666666</v>
       </c>
-      <c r="Z45" s="29">
+      <c r="Z45" s="36">
         <v>0.1102840938488092</v>
       </c>
-      <c r="AA45" s="29">
+      <c r="AA45" s="36">
         <v>0.17896141020578601</v>
       </c>
-      <c r="AB45" s="29">
+      <c r="AB45" s="36">
         <v>2.4326852328791158</v>
       </c>
-      <c r="AC45" s="29">
+      <c r="AC45" s="36">
         <v>-2.2299645316809764</v>
       </c>
-      <c r="AD45" s="29">
+      <c r="AD45" s="36">
         <v>-0.56990537406970243</v>
       </c>
-      <c r="AE45" s="29">
+      <c r="AE45" s="36">
         <v>-1.2043050323342763</v>
       </c>
-      <c r="AF45" s="29">
+      <c r="AF45" s="36">
         <v>-0.13253461720938842</v>
       </c>
-      <c r="AG45" s="29">
+      <c r="AG45" s="36">
         <v>-0.23735994200925623</v>
       </c>
-      <c r="AH45" s="29">
+      <c r="AH45" s="36">
         <v>0.18267368025607938</v>
       </c>
-      <c r="AI45" s="26" t="b">
+      <c r="AI45" s="36" t="b">
         <v>1</v>
       </c>
+      <c r="AJ45" s="36" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" s="13" customFormat="1">
+    <row r="46" spans="1:36" s="13" customFormat="1">
       <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
@@ -5657,115 +5734,121 @@
       <c r="AI46" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ46" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" s="23" customFormat="1">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:36" s="32" customFormat="1">
+      <c r="A47" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="32">
         <v>15</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="32">
         <v>5</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="32">
         <v>2</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="32">
         <v>22</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="33">
         <v>44411</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="32">
         <v>23</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="32">
         <v>26.42</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="32">
         <v>28.22</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="32">
         <v>1.7999999999999972</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="32">
         <v>7</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="32">
         <v>-7.9166666666666661</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="32">
         <v>4</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="32">
         <v>1.6907689166816926</v>
       </c>
-      <c r="P47" s="23">
-        <v>9</v>
-      </c>
-      <c r="Q47" s="23">
+      <c r="P47" s="32">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="32">
         <v>7</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="32">
         <v>178</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="32">
         <v>90</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="32">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U47" s="23">
+      <c r="U47" s="32">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="V47" s="23">
+      <c r="V47" s="32">
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="W47" s="23">
+      <c r="W47" s="32">
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="X47" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="23">
+      <c r="X47" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="32">
         <v>8.9878564398539446E-2</v>
       </c>
-      <c r="AA47" s="23">
+      <c r="AA47" s="32">
         <v>6.1292168117225286E-2</v>
       </c>
-      <c r="AB47" s="23">
+      <c r="AB47" s="32">
         <v>-1.2785733736431872</v>
       </c>
-      <c r="AC47" s="23">
+      <c r="AC47" s="32">
         <v>1.0431464981157728</v>
       </c>
-      <c r="AD47" s="23">
+      <c r="AD47" s="32">
         <v>2.9020976604569738E-2</v>
       </c>
-      <c r="AE47" s="23">
+      <c r="AE47" s="32">
         <v>-0.82262081013103117</v>
       </c>
-      <c r="AF47" s="23">
+      <c r="AF47" s="32">
         <v>-0.48308497208395501</v>
       </c>
-      <c r="AG47" s="23">
+      <c r="AG47" s="32">
         <v>0.38737046908179706</v>
       </c>
-      <c r="AH47" s="23">
+      <c r="AH47" s="32">
         <v>0.11371119377449639</v>
       </c>
-      <c r="AI47" s="26" t="b">
-        <v>0</v>
+      <c r="AI47" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="32" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:36">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5872,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:36">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5979,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="4" customFormat="1">
+    <row r="50" spans="1:36" s="4" customFormat="1">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -6086,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="4" customFormat="1">
+    <row r="51" spans="1:36" s="4" customFormat="1">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -6193,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="17" customFormat="1">
+    <row r="52" spans="1:36" s="17" customFormat="1">
       <c r="A52" s="16" t="s">
         <v>21</v>
       </c>
@@ -6299,8 +6382,11 @@
       <c r="AI52" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ52" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:36">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -6407,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:36">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
@@ -6514,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="26" customFormat="1">
+    <row r="55" spans="1:36" s="26" customFormat="1">
       <c r="A55" s="25" t="s">
         <v>24</v>
       </c>
@@ -6621,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:36">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -6728,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:36">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
@@ -6835,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="13" customFormat="1">
+    <row r="58" spans="1:36" s="13" customFormat="1">
       <c r="A58" s="12" t="s">
         <v>27</v>
       </c>
@@ -6941,8 +7027,11 @@
       <c r="AI58" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ58" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="59" spans="1:35" s="13" customFormat="1">
+    <row r="59" spans="1:36" s="13" customFormat="1">
       <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
@@ -7048,8 +7137,11 @@
       <c r="AI59" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ59" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:36">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -7156,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:36">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -7263,114 +7355,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="32" customFormat="1">
-      <c r="A62" s="31" t="s">
+    <row r="62" spans="1:36" s="29" customFormat="1">
+      <c r="A62" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="29">
         <v>17</v>
       </c>
-      <c r="C62" s="32">
-        <v>9</v>
-      </c>
-      <c r="D62" s="32">
+      <c r="C62" s="29">
+        <v>9</v>
+      </c>
+      <c r="D62" s="29">
         <v>2</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="29">
         <v>20</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="30">
         <v>44411</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="29">
         <v>23</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="32">
+      <c r="I62" s="29">
         <v>25.19</v>
       </c>
-      <c r="J62" s="32">
+      <c r="J62" s="29">
         <v>28.58</v>
       </c>
-      <c r="K62" s="32">
+      <c r="K62" s="29">
         <v>3.389999999999997</v>
       </c>
-      <c r="L62" s="32">
+      <c r="L62" s="29">
         <v>6</v>
       </c>
-      <c r="M62" s="32">
+      <c r="M62" s="29">
         <v>-1.6833333333333336</v>
       </c>
-      <c r="N62" s="32">
+      <c r="N62" s="29">
         <v>7</v>
       </c>
-      <c r="O62" s="32">
+      <c r="O62" s="29">
         <v>-2.5191734191734199</v>
       </c>
-      <c r="P62" s="32">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="32">
-        <v>9</v>
-      </c>
-      <c r="R62" s="32">
+      <c r="P62" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="29">
+        <v>9</v>
+      </c>
+      <c r="R62" s="29">
         <v>96</v>
       </c>
-      <c r="S62" s="32">
+      <c r="S62" s="29">
         <v>88</v>
       </c>
-      <c r="T62" s="32">
+      <c r="T62" s="29">
         <v>0.1111111111111111</v>
       </c>
-      <c r="U62" s="32">
+      <c r="U62" s="29">
         <v>0.1111111111111111</v>
       </c>
-      <c r="V62" s="32">
+      <c r="V62" s="29">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="W62" s="32">
+      <c r="W62" s="29">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="X62" s="32">
+      <c r="X62" s="29">
         <v>0.99285714285714288</v>
       </c>
-      <c r="Y62" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="32">
+      <c r="Y62" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="29">
         <v>0.10498361822932066</v>
       </c>
-      <c r="AA62" s="32">
+      <c r="AA62" s="29">
         <v>0.11282662279099502</v>
       </c>
-      <c r="AB62" s="32">
+      <c r="AB62" s="29">
         <v>0.41637087961201918</v>
       </c>
-      <c r="AC62" s="32">
+      <c r="AC62" s="29">
         <v>1.6070483039102497</v>
       </c>
-      <c r="AD62" s="32">
+      <c r="AD62" s="29">
         <v>0.11801599274605735</v>
       </c>
-      <c r="AE62" s="32">
+      <c r="AE62" s="29">
         <v>-3.7080269558884493E-2</v>
       </c>
-      <c r="AF62" s="32">
+      <c r="AF62" s="29">
         <v>-0.34906900012117476</v>
       </c>
-      <c r="AG62" s="32">
+      <c r="AG62" s="29">
         <v>-0.1450775872354278</v>
       </c>
-      <c r="AH62" s="32">
+      <c r="AH62" s="29">
         <v>9.5514931513331503E-3</v>
       </c>
       <c r="AI62" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="23" customFormat="1">
+    <row r="63" spans="1:36" s="23" customFormat="1">
       <c r="A63" s="22" t="s">
         <v>32</v>
       </c>
@@ -7476,8 +7568,11 @@
       <c r="AI63" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ63" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="64" spans="1:35" s="13" customFormat="1">
+    <row r="64" spans="1:36" s="13" customFormat="1">
       <c r="A64" s="12" t="s">
         <v>33</v>
       </c>
@@ -7583,8 +7678,11 @@
       <c r="AI64" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ64" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:36">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -7691,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:36">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -7798,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="26" customFormat="1">
+    <row r="67" spans="1:36" s="26" customFormat="1">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -7905,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="26" customFormat="1">
+    <row r="68" spans="1:36" s="26" customFormat="1">
       <c r="A68" s="25" t="s">
         <v>37</v>
       </c>
@@ -8012,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="26" customFormat="1">
+    <row r="69" spans="1:36" s="26" customFormat="1">
       <c r="A69" s="25" t="s">
         <v>38</v>
       </c>
@@ -8119,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" s="13" customFormat="1">
+    <row r="70" spans="1:36" s="13" customFormat="1">
       <c r="A70" s="12" t="s">
         <v>39</v>
       </c>
@@ -8225,8 +8323,11 @@
       <c r="AI70" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ70" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:36">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -8333,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" s="7" customFormat="1">
+    <row r="72" spans="1:36" s="7" customFormat="1">
       <c r="A72" s="6" t="s">
         <v>5</v>
       </c>
@@ -8440,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:36">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -8547,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:36">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -8654,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:36">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -8761,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:36">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -8868,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:36">
       <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
@@ -8975,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:36">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -9082,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:36">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -9189,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:36">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
@@ -12502,6 +12603,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/validation_cohort.xlsx
+++ b/data/validation_cohort.xlsx
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/validation_cohort.xlsx
+++ b/data/validation_cohort.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang.kelsch\Documents\GitHub\RichClubs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corentin.nelias\Documents\GitHub\RichClubs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -253,18 +253,6 @@
   </si>
   <si>
     <t>RC</t>
-  </si>
-  <si>
-    <t>histology</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
 </sst>
 </file>
@@ -716,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -862,9 +850,7 @@
       <c r="AI1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="31" t="s">
-        <v>78</v>
-      </c>
+      <c r="AJ1" s="31"/>
     </row>
     <row r="2" spans="1:36" s="26" customFormat="1">
       <c r="A2" s="25" t="s">
@@ -1079,9 +1065,6 @@
       <c r="AI3" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ3" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
@@ -1296,9 +1279,6 @@
       <c r="AI5" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" s="13" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="6" spans="1:36" s="20" customFormat="1">
       <c r="A6" s="19" t="s">
@@ -1406,9 +1386,6 @@
       <c r="AI6" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ6" s="20" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="7" spans="1:36" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
@@ -1516,9 +1493,6 @@
       <c r="AI7" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ7" s="13" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
@@ -2375,9 +2349,6 @@
       <c r="AI15" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ15" s="23" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="1" t="s">
@@ -2486,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="13" customFormat="1">
+    <row r="17" spans="1:35" s="13" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
@@ -2592,11 +2563,8 @@
       <c r="AI17" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ17" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="18" spans="1:36" s="23" customFormat="1">
+    <row r="18" spans="1:35" s="23" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -2702,11 +2670,8 @@
       <c r="AI18" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ18" s="23" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="19" spans="1:36" s="13" customFormat="1">
+    <row r="19" spans="1:35" s="13" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -2812,11 +2777,8 @@
       <c r="AI19" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ19" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2923,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="23" customFormat="1">
+    <row r="21" spans="1:35" s="23" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
@@ -3029,11 +2991,8 @@
       <c r="AI21" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ21" s="23" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="22" spans="1:36" s="17" customFormat="1">
+    <row r="22" spans="1:35" s="17" customFormat="1">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -3139,11 +3098,8 @@
       <c r="AI22" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ22" s="17" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3250,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3357,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3464,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="13" customFormat="1">
+    <row r="28" spans="1:35" s="13" customFormat="1">
       <c r="A28" s="12" t="s">
         <v>27</v>
       </c>
@@ -3784,11 +3740,8 @@
       <c r="AI28" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ28" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="29" spans="1:36" s="13" customFormat="1">
+    <row r="29" spans="1:35" s="13" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -3894,11 +3847,8 @@
       <c r="AI29" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ29" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="30" spans="1:36" s="13" customFormat="1">
+    <row r="30" spans="1:35" s="13" customFormat="1">
       <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
@@ -4004,11 +3954,8 @@
       <c r="AI30" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="AJ30" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4115,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="29" customFormat="1">
+    <row r="32" spans="1:35" s="29" customFormat="1">
       <c r="A32" s="28" t="s">
         <v>31</v>
       </c>
@@ -4222,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="23" customFormat="1">
+    <row r="33" spans="1:35" s="23" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>32</v>
       </c>
@@ -4328,11 +4275,8 @@
       <c r="AI33" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ33" s="23" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="34" spans="1:36" s="13" customFormat="1">
+    <row r="34" spans="1:35" s="13" customFormat="1">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -4438,11 +4382,8 @@
       <c r="AI34" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ34" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="35" spans="1:36" s="26" customFormat="1">
+    <row r="35" spans="1:35" s="26" customFormat="1">
       <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
@@ -4549,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4656,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -4763,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -4870,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" s="26" customFormat="1">
+    <row r="39" spans="1:35" s="26" customFormat="1">
       <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="13" customFormat="1">
+    <row r="40" spans="1:35" s="13" customFormat="1">
       <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
@@ -5083,11 +5024,8 @@
       <c r="AI40" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ40" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5194,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" s="7" customFormat="1">
+    <row r="42" spans="1:35" s="7" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
@@ -5301,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" s="13" customFormat="1">
+    <row r="43" spans="1:35" s="13" customFormat="1">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -5407,11 +5345,8 @@
       <c r="AI43" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ43" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -5518,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" s="36" customFormat="1">
+    <row r="45" spans="1:35" s="36" customFormat="1">
       <c r="A45" s="35" t="s">
         <v>4</v>
       </c>
@@ -5624,11 +5559,8 @@
       <c r="AI45" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="AJ45" s="36" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="46" spans="1:36" s="13" customFormat="1">
+    <row r="46" spans="1:35" s="13" customFormat="1">
       <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
@@ -5734,11 +5666,8 @@
       <c r="AI46" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ46" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="47" spans="1:36" s="32" customFormat="1">
+    <row r="47" spans="1:35" s="32" customFormat="1">
       <c r="A47" s="15" t="s">
         <v>6</v>
       </c>
@@ -5844,11 +5773,8 @@
       <c r="AI47" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AJ47" s="32" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -6062,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="4" customFormat="1">
+    <row r="50" spans="1:35" s="4" customFormat="1">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -6169,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="4" customFormat="1">
+    <row r="51" spans="1:35" s="4" customFormat="1">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -6276,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:36" s="17" customFormat="1">
+    <row r="52" spans="1:35" s="17" customFormat="1">
       <c r="A52" s="16" t="s">
         <v>21</v>
       </c>
@@ -6382,11 +6308,8 @@
       <c r="AI52" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ52" s="17" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -6493,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
@@ -6600,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" s="26" customFormat="1">
+    <row r="55" spans="1:35" s="26" customFormat="1">
       <c r="A55" s="25" t="s">
         <v>24</v>
       </c>
@@ -6707,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -6814,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
@@ -6921,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" s="13" customFormat="1">
+    <row r="58" spans="1:35" s="13" customFormat="1">
       <c r="A58" s="12" t="s">
         <v>27</v>
       </c>
@@ -7027,11 +6950,8 @@
       <c r="AI58" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ58" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="59" spans="1:36" s="13" customFormat="1">
+    <row r="59" spans="1:35" s="13" customFormat="1">
       <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
@@ -7137,11 +7057,8 @@
       <c r="AI59" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ59" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -7248,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -7355,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" s="29" customFormat="1">
+    <row r="62" spans="1:35" s="29" customFormat="1">
       <c r="A62" s="28" t="s">
         <v>31</v>
       </c>
@@ -7462,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" s="23" customFormat="1">
+    <row r="63" spans="1:35" s="23" customFormat="1">
       <c r="A63" s="22" t="s">
         <v>32</v>
       </c>
@@ -7568,11 +7485,8 @@
       <c r="AI63" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ63" s="23" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="64" spans="1:36" s="13" customFormat="1">
+    <row r="64" spans="1:35" s="13" customFormat="1">
       <c r="A64" s="12" t="s">
         <v>33</v>
       </c>
@@ -7678,11 +7592,8 @@
       <c r="AI64" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ64" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:35">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -7789,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -7896,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:36" s="26" customFormat="1">
+    <row r="67" spans="1:35" s="26" customFormat="1">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -8003,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:36" s="26" customFormat="1">
+    <row r="68" spans="1:35" s="26" customFormat="1">
       <c r="A68" s="25" t="s">
         <v>37</v>
       </c>
@@ -8110,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:36" s="26" customFormat="1">
+    <row r="69" spans="1:35" s="26" customFormat="1">
       <c r="A69" s="25" t="s">
         <v>38</v>
       </c>
@@ -8217,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:36" s="13" customFormat="1">
+    <row r="70" spans="1:35" s="13" customFormat="1">
       <c r="A70" s="12" t="s">
         <v>39</v>
       </c>
@@ -8323,11 +8234,8 @@
       <c r="AI70" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="AJ70" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -8434,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:36" s="7" customFormat="1">
+    <row r="72" spans="1:35" s="7" customFormat="1">
       <c r="A72" s="6" t="s">
         <v>5</v>
       </c>
@@ -8541,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:35">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -8648,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:35">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -8755,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:35">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -8862,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:35">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -8969,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
@@ -9076,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:35">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -9183,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
@@ -9290,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:35">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
